--- a/examplesBR/eg.schedule.2.rs.ot.xlsx
+++ b/examplesBR/eg.schedule.2.rs.ot.xlsx
@@ -672,7 +672,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>16H-18H</t>
+          <t>14H-16H</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -682,7 +682,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>16H-18H</t>
+          <t>14H-16H</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -692,29 +692,29 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
+          <t>14H-16H</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>22/03/2024</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>8H-10H</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>28/03/2024</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
           <t>10H-12H</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>22/03/2024</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>16H-18H</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>28/03/2024</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>16H-18H</t>
-        </is>
-      </c>
       <c r="T3" t="inlineStr">
         <is>
           <t>04/04/2024</t>
@@ -732,7 +732,7 @@
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>10H-12H</t>
+          <t>8H-10H</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
@@ -784,37 +784,37 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>16/02/2024</t>
+          <t>15/02/2024</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>14H-16H</t>
+          <t>8H-10H</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>23/02/2024</t>
+          <t>22/02/2024</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>14H-16H</t>
+          <t>10H-12H</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>01/03/2024</t>
+          <t>29/02/2024</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>14H-16H</t>
+          <t>10H-12H</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>08/03/2024</t>
+          <t>07/03/2024</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -824,22 +824,22 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>15/03/2024</t>
+          <t>14/03/2024</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>14H-16H</t>
+          <t>16H-18H</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>22/03/2024</t>
+          <t>21/03/2024</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>14H-16H</t>
+          <t>10H-12H</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -849,7 +849,7 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>10H-12H</t>
+          <t>16H-18H</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
@@ -859,7 +859,7 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>10H-12H</t>
+          <t>8H-10H</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
@@ -966,37 +966,37 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
+          <t>8H-10H</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>16/07/2024</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>16H-18H</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>23/07/2024</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>16H-18H</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
           <t>10H-12H</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>16/07/2024</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>8H-10H</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>23/07/2024</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>14H-16H</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>30/07/2024</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>14H-16H</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
@@ -1123,7 +1123,7 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>16H-18H</t>
+          <t>14H-16H</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
@@ -1133,7 +1133,7 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>8H-10H</t>
+          <t>14H-16H</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>16H-18H</t>
+          <t>10H-12H</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1449,7 +1449,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>PLOKOON</t>
+          <t>4-LOM</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1459,122 +1459,122 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>07/02/2024</t>
+          <t>05/02/2024</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>8H-10H</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>21/02/2024</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>10H-12H</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>28/02/2024</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
           <t>16H-18H</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>21/02/2024</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>06/03/2024</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>10H-12H</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>13/03/2024</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
         <is>
           <t>8H-10H</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>28/02/2024</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>20/03/2024</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>16H-18H</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>27/03/2024</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>8H-10H</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>06/03/2024</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>03/04/2024</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
         <is>
           <t>14H-16H</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>13/03/2024</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>08/04/2024</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>10H-12H</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>15/04/2024</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>16H-18H</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>08/05/2024</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>16H-18H</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>31/07/2024</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
         <is>
           <t>8H-10H</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>20/03/2024</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>10H-12H</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>27/03/2024</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>14H-16H</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>03/04/2024</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>16H-18H</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>08/04/2024</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>8H-10H</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>17/04/2024</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>10H-12H</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>15/05/2024</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>16H-18H</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>31/07/2024</t>
-        </is>
-      </c>
-      <c r="AA9" t="inlineStr">
-        <is>
-          <t>14H-16H</t>
         </is>
       </c>
     </row>
@@ -1691,7 +1691,7 @@
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>10H-12H</t>
+          <t>14H-16H</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
@@ -1748,87 +1748,87 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
+          <t>8H-10H</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>04/04/2024</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>10H-12H</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>11/04/2024</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>10H-12H</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>18/04/2024</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>16H-18H</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>25/04/2024</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>10H-12H</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>02/05/2024</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
           <t>14H-16H</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>04/04/2024</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>09/05/2024</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
         <is>
           <t>8H-10H</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>11/04/2024</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>16/05/2024</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
         <is>
           <t>10H-12H</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>18/04/2024</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>8H-10H</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>25/04/2024</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>23/05/2024</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
         <is>
           <t>14H-16H</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>02/05/2024</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>10H-12H</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>09/05/2024</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>14H-16H</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>16/05/2024</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>14H-16H</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>23/05/2024</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>16H-18H</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
@@ -2326,47 +2326,47 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
+          <t>16H-18H</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>18/03/2024</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>14H-16H</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>25/03/2024</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
           <t>8H-10H</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>18/03/2024</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
         <is>
           <t>14H-16H</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>25/03/2024</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>08/04/2024</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
         <is>
           <t>14H-16H</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>01/04/2024</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>10H-12H</t>
-        </is>
-      </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>08/04/2024</t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>10H-12H</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
@@ -2580,7 +2580,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>14H-16H</t>
+          <t>16H-18H</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -2620,7 +2620,7 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>10H-12H</t>
+          <t>8H-10H</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -2864,57 +2864,57 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
+          <t>10H-12H</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>27/06/2024</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>14H-16H</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>04/07/2024</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>8H-10H</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>11/07/2024</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>8H-10H</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>18/07/2024</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>10H-12H</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>25/07/2024</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
           <t>16H-18H</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>27/06/2024</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>8H-10H</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>04/07/2024</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>16H-18H</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>11/07/2024</t>
-        </is>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>10H-12H</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>18/07/2024</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>16H-18H</t>
-        </is>
-      </c>
-      <c r="T19" t="inlineStr">
-        <is>
-          <t>25/07/2024</t>
-        </is>
-      </c>
-      <c r="U19" t="inlineStr">
-        <is>
-          <t>14H-16H</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
@@ -3001,29 +3001,29 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
+          <t>14H-16H</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>28/06/2024</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
           <t>16H-18H</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>28/06/2024</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>05/07/2024</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
         <is>
           <t>16H-18H</t>
         </is>
       </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>05/07/2024</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>16H-18H</t>
-        </is>
-      </c>
       <c r="P20" t="inlineStr">
         <is>
           <t>12/07/2024</t>
@@ -3041,19 +3041,19 @@
       </c>
       <c r="S20" t="inlineStr">
         <is>
+          <t>14H-16H</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>26/07/2024</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
           <t>8H-10H</t>
         </is>
       </c>
-      <c r="T20" t="inlineStr">
-        <is>
-          <t>26/07/2024</t>
-        </is>
-      </c>
-      <c r="U20" t="inlineStr">
-        <is>
-          <t>8H-10H</t>
-        </is>
-      </c>
       <c r="V20" t="inlineStr">
         <is>
           <t>02/08/2024</t>
@@ -3061,7 +3061,7 @@
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>10H-12H</t>
+          <t>14H-16H</t>
         </is>
       </c>
       <c r="X20" t="inlineStr">
@@ -3726,7 +3726,7 @@
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>14H-16H</t>
+          <t>16H-18H</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>8H-10H</t>
+          <t>16H-18H</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
@@ -3746,7 +3746,7 @@
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>10H-12H</t>
+          <t>16H-18H</t>
         </is>
       </c>
       <c r="X25" t="inlineStr">
@@ -4294,7 +4294,7 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>8H-10H</t>
+          <t>16H-18H</t>
         </is>
       </c>
       <c r="X29" t="inlineStr">
@@ -4635,77 +4635,77 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
+          <t>14H-16H</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>24/04/2024</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>16H-18H</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>30/04/2024</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>16H-18H</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>07/05/2024</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>16H-18H</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>14/05/2024</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>14H-16H</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>21/05/2024</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
           <t>8H-10H</t>
         </is>
       </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>24/04/2024</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>8H-10H</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>30/04/2024</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr">
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>28/05/2024</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>16H-18H</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>04/06/2024</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
         <is>
           <t>10H-12H</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>07/05/2024</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>16H-18H</t>
-        </is>
-      </c>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>14/05/2024</t>
-        </is>
-      </c>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>10H-12H</t>
-        </is>
-      </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>21/05/2024</t>
-        </is>
-      </c>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>10H-12H</t>
-        </is>
-      </c>
-      <c r="T32" t="inlineStr">
-        <is>
-          <t>28/05/2024</t>
-        </is>
-      </c>
-      <c r="U32" t="inlineStr">
-        <is>
-          <t>14H-16H</t>
-        </is>
-      </c>
-      <c r="V32" t="inlineStr">
-        <is>
-          <t>04/06/2024</t>
-        </is>
-      </c>
-      <c r="W32" t="inlineStr">
-        <is>
-          <t>14H-16H</t>
         </is>
       </c>
       <c r="X32" t="inlineStr">
@@ -4822,7 +4822,7 @@
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>10H-12H</t>
+          <t>16H-18H</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
@@ -4939,47 +4939,47 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
+          <t>10H-12H</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>26/03/2024</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>10H-12H</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>02/04/2024</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>16H-18H</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>09/04/2024</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>10H-12H</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>16/04/2024</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
           <t>8H-10H</t>
-        </is>
-      </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>26/03/2024</t>
-        </is>
-      </c>
-      <c r="Q34" t="inlineStr">
-        <is>
-          <t>16H-18H</t>
-        </is>
-      </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>02/04/2024</t>
-        </is>
-      </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>10H-12H</t>
-        </is>
-      </c>
-      <c r="T34" t="inlineStr">
-        <is>
-          <t>09/04/2024</t>
-        </is>
-      </c>
-      <c r="U34" t="inlineStr">
-        <is>
-          <t>14H-16H</t>
-        </is>
-      </c>
-      <c r="V34" t="inlineStr">
-        <is>
-          <t>16/04/2024</t>
-        </is>
-      </c>
-      <c r="W34" t="inlineStr">
-        <is>
-          <t>10H-12H</t>
         </is>
       </c>
       <c r="X34" t="inlineStr">
@@ -5310,89 +5310,89 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
+          <t>10H-12H</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>03/06/2024</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>10H-12H</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>10/06/2024</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>10H-12H</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>17/06/2024</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
           <t>8H-10H</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>03/06/2024</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>24/06/2024</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>14H-16H</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>01/07/2024</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
         <is>
           <t>16H-18H</t>
         </is>
       </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>10/06/2024</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>08/07/2024</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
         <is>
           <t>14H-16H</t>
         </is>
       </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>17/06/2024</t>
-        </is>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>14H-16H</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>24/06/2024</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr">
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>15/07/2024</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>16H-18H</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>22/07/2024</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
         <is>
           <t>10H-12H</t>
         </is>
       </c>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t>01/07/2024</t>
-        </is>
-      </c>
-      <c r="Q37" t="inlineStr">
-        <is>
-          <t>8H-10H</t>
-        </is>
-      </c>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>08/07/2024</t>
-        </is>
-      </c>
-      <c r="S37" t="inlineStr">
-        <is>
-          <t>10H-12H</t>
-        </is>
-      </c>
-      <c r="T37" t="inlineStr">
-        <is>
-          <t>15/07/2024</t>
-        </is>
-      </c>
-      <c r="U37" t="inlineStr">
-        <is>
-          <t>8H-10H</t>
-        </is>
-      </c>
-      <c r="V37" t="inlineStr">
-        <is>
-          <t>22/07/2024</t>
-        </is>
-      </c>
-      <c r="W37" t="inlineStr">
-        <is>
-          <t>10H-12H</t>
-        </is>
-      </c>
       <c r="X37" t="inlineStr">
         <is>
           <t>19/08/2024</t>
@@ -5400,7 +5400,7 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>14H-16H</t>
+          <t>16H-18H</t>
         </is>
       </c>
       <c r="Z37" t="inlineStr">
@@ -5731,69 +5731,69 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
+          <t>16H-18H</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>28/02/2024</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>8H-10H</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>06/03/2024</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>8H-10H</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>13/03/2024</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
           <t>14H-16H</t>
         </is>
       </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>28/02/2024</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>20/03/2024</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>8H-10H</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>27/03/2024</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
         <is>
           <t>16H-18H</t>
         </is>
       </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>06/03/2024</t>
-        </is>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>8H-10H</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>13/03/2024</t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr">
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>03/04/2024</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
         <is>
           <t>10H-12H</t>
         </is>
       </c>
-      <c r="P40" t="inlineStr">
-        <is>
-          <t>20/03/2024</t>
-        </is>
-      </c>
-      <c r="Q40" t="inlineStr">
-        <is>
-          <t>16H-18H</t>
-        </is>
-      </c>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>27/03/2024</t>
-        </is>
-      </c>
-      <c r="S40" t="inlineStr">
-        <is>
-          <t>16H-18H</t>
-        </is>
-      </c>
-      <c r="T40" t="inlineStr">
-        <is>
-          <t>03/04/2024</t>
-        </is>
-      </c>
-      <c r="U40" t="inlineStr">
-        <is>
-          <t>8H-10H</t>
-        </is>
-      </c>
       <c r="V40" t="inlineStr">
         <is>
           <t>10/04/2024</t>
@@ -5801,7 +5801,7 @@
       </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t>16H-18H</t>
+          <t>14H-16H</t>
         </is>
       </c>
       <c r="X40" t="inlineStr">
@@ -5853,7 +5853,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>15/02/2024</t>
+          <t>16/02/2024</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -5863,62 +5863,62 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>22/02/2024</t>
+          <t>23/02/2024</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
+          <t>14H-16H</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>01/03/2024</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>16H-18H</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>08/03/2024</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>8H-10H</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>15/03/2024</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
           <t>10H-12H</t>
         </is>
       </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>29/02/2024</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>8H-10H</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>07/03/2024</t>
-        </is>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>10H-12H</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>14/03/2024</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr">
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>22/03/2024</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>16H-18H</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>28/03/2024</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
         <is>
           <t>14H-16H</t>
-        </is>
-      </c>
-      <c r="P41" t="inlineStr">
-        <is>
-          <t>21/03/2024</t>
-        </is>
-      </c>
-      <c r="Q41" t="inlineStr">
-        <is>
-          <t>16H-18H</t>
-        </is>
-      </c>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>28/03/2024</t>
-        </is>
-      </c>
-      <c r="S41" t="inlineStr">
-        <is>
-          <t>8H-10H</t>
         </is>
       </c>
       <c r="T41" t="inlineStr">
@@ -6518,7 +6518,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>PLOKOON</t>
+          <t>4-LOM</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -6533,117 +6533,117 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
+          <t>16H-18H</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>16/02/2024</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>14H-16H</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>23/02/2024</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>8H-10H</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>01/03/2024</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>8H-10H</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>08/03/2024</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
           <t>10H-12H</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>16/02/2024</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>8H-10H</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>23/02/2024</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>8H-10H</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>01/03/2024</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>8H-10H</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>08/03/2024</t>
-        </is>
-      </c>
-      <c r="M46" t="inlineStr">
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>15/03/2024</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>16H-18H</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>22/03/2024</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>14H-16H</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>26/03/2024</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>14H-16H</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>02/04/2024</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>14H-16H</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>09/04/2024</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>14H-16H</t>
+        </is>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>03/05/2024</t>
+        </is>
+      </c>
+      <c r="Y46" t="inlineStr">
+        <is>
+          <t>16H-18H</t>
+        </is>
+      </c>
+      <c r="Z46" t="inlineStr">
+        <is>
+          <t>06/08/2024</t>
+        </is>
+      </c>
+      <c r="AA46" t="inlineStr">
         <is>
           <t>10H-12H</t>
-        </is>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>15/03/2024</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>16H-18H</t>
-        </is>
-      </c>
-      <c r="P46" t="inlineStr">
-        <is>
-          <t>22/03/2024</t>
-        </is>
-      </c>
-      <c r="Q46" t="inlineStr">
-        <is>
-          <t>10H-12H</t>
-        </is>
-      </c>
-      <c r="R46" t="inlineStr">
-        <is>
-          <t>26/03/2024</t>
-        </is>
-      </c>
-      <c r="S46" t="inlineStr">
-        <is>
-          <t>10H-12H</t>
-        </is>
-      </c>
-      <c r="T46" t="inlineStr">
-        <is>
-          <t>02/04/2024</t>
-        </is>
-      </c>
-      <c r="U46" t="inlineStr">
-        <is>
-          <t>8H-10H</t>
-        </is>
-      </c>
-      <c r="V46" t="inlineStr">
-        <is>
-          <t>09/04/2024</t>
-        </is>
-      </c>
-      <c r="W46" t="inlineStr">
-        <is>
-          <t>16H-18H</t>
-        </is>
-      </c>
-      <c r="X46" t="inlineStr">
-        <is>
-          <t>03/05/2024</t>
-        </is>
-      </c>
-      <c r="Y46" t="inlineStr">
-        <is>
-          <t>14H-16H</t>
-        </is>
-      </c>
-      <c r="Z46" t="inlineStr">
-        <is>
-          <t>02/08/2024</t>
-        </is>
-      </c>
-      <c r="AA46" t="inlineStr">
-        <is>
-          <t>14H-16H</t>
         </is>
       </c>
     </row>
@@ -7203,7 +7203,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>4-LOM</t>
+          <t>PLOKOON</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -7218,117 +7218,117 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
+          <t>14H-16H</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>20/02/2024</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
           <t>10H-12H</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>20/02/2024</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>27/02/2024</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>16H-18H</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>05/03/2024</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>16H-18H</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>12/03/2024</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>16H-18H</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>19/03/2024</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>8H-10H</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>26/03/2024</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>8H-10H</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>02/04/2024</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
         <is>
           <t>10H-12H</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>27/02/2024</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>8H-10H</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>05/03/2024</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>09/04/2024</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>16H-18H</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>17/04/2024</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>16H-18H</t>
+        </is>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>30/04/2024</t>
+        </is>
+      </c>
+      <c r="Y51" t="inlineStr">
         <is>
           <t>14H-16H</t>
         </is>
       </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>12/03/2024</t>
-        </is>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>8H-10H</t>
-        </is>
-      </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>19/03/2024</t>
-        </is>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>16H-18H</t>
-        </is>
-      </c>
-      <c r="P51" t="inlineStr">
-        <is>
-          <t>26/03/2024</t>
-        </is>
-      </c>
-      <c r="Q51" t="inlineStr">
-        <is>
-          <t>8H-10H</t>
-        </is>
-      </c>
-      <c r="R51" t="inlineStr">
-        <is>
-          <t>02/04/2024</t>
-        </is>
-      </c>
-      <c r="S51" t="inlineStr">
+      <c r="Z51" t="inlineStr">
+        <is>
+          <t>31/07/2024</t>
+        </is>
+      </c>
+      <c r="AA51" t="inlineStr">
         <is>
           <t>14H-16H</t>
-        </is>
-      </c>
-      <c r="T51" t="inlineStr">
-        <is>
-          <t>09/04/2024</t>
-        </is>
-      </c>
-      <c r="U51" t="inlineStr">
-        <is>
-          <t>10H-12H</t>
-        </is>
-      </c>
-      <c r="V51" t="inlineStr">
-        <is>
-          <t>16/04/2024</t>
-        </is>
-      </c>
-      <c r="W51" t="inlineStr">
-        <is>
-          <t>14H-16H</t>
-        </is>
-      </c>
-      <c r="X51" t="inlineStr">
-        <is>
-          <t>30/04/2024</t>
-        </is>
-      </c>
-      <c r="Y51" t="inlineStr">
-        <is>
-          <t>14H-16H</t>
-        </is>
-      </c>
-      <c r="Z51" t="inlineStr">
-        <is>
-          <t>06/08/2024</t>
-        </is>
-      </c>
-      <c r="AA51" t="inlineStr">
-        <is>
-          <t>10H-12H</t>
         </is>
       </c>
     </row>
@@ -10042,7 +10042,7 @@
       </c>
       <c r="AB3" s="0" t="inlineStr">
         <is>
-          <t>Clone Trooper</t>
+          <t>Bib Fortuna</t>
         </is>
       </c>
       <c r="AC3" s="0" t="inlineStr">
@@ -10163,11 +10163,7 @@
           <t>Bao-Dur</t>
         </is>
       </c>
-      <c r="CA3" s="0" t="inlineStr">
-        <is>
-          <t>Anakin Skywalker</t>
-        </is>
-      </c>
+      <c r="CA3" s="0" t="inlineStr"/>
       <c r="CB3" s="0" t="inlineStr"/>
       <c r="CC3" s="0" t="inlineStr"/>
       <c r="CD3" s="0" t="inlineStr">
@@ -10348,11 +10344,7 @@
           <t>Taron Malicos</t>
         </is>
       </c>
-      <c r="EZ3" s="0" t="inlineStr">
-        <is>
-          <t>Raddus</t>
-        </is>
-      </c>
+      <c r="EZ3" s="0" t="inlineStr"/>
       <c r="FA3" s="0" t="inlineStr">
         <is>
           <t>OFF</t>
@@ -10667,7 +10659,7 @@
       </c>
       <c r="AB4" s="0" t="inlineStr">
         <is>
-          <t>Cad Bane</t>
+          <t>Rancor</t>
         </is>
       </c>
       <c r="AC4" s="0" t="inlineStr">
@@ -10781,7 +10773,7 @@
       <c r="BU4" s="0" t="inlineStr"/>
       <c r="BV4" s="0" t="inlineStr">
         <is>
-          <t>Tusken Raider</t>
+          <t>Maz Kanata</t>
         </is>
       </c>
       <c r="BW4" s="0" t="inlineStr">
@@ -10821,18 +10813,18 @@
           <t>OFF</t>
         </is>
       </c>
-      <c r="CJ4" s="0" t="inlineStr"/>
+      <c r="CJ4" s="0" t="inlineStr">
+        <is>
+          <t>Rancor</t>
+        </is>
+      </c>
       <c r="CK4" s="0" t="inlineStr">
         <is>
           <t>OFF</t>
         </is>
       </c>
       <c r="CL4" s="0" t="inlineStr"/>
-      <c r="CM4" s="0" t="inlineStr">
-        <is>
-          <t>Clone Trooper</t>
-        </is>
-      </c>
+      <c r="CM4" s="0" t="inlineStr"/>
       <c r="CN4" s="0" t="inlineStr">
         <is>
           <t>OFF</t>
@@ -10989,7 +10981,7 @@
       </c>
       <c r="EX4" s="0" t="inlineStr">
         <is>
-          <t>Anakin Skywalker</t>
+          <t>Rancor</t>
         </is>
       </c>
       <c r="EY4" s="0" t="inlineStr">
@@ -10999,7 +10991,7 @@
       </c>
       <c r="EZ4" s="0" t="inlineStr">
         <is>
-          <t>Clone Trooper</t>
+          <t>Raddus</t>
         </is>
       </c>
       <c r="FA4" s="0" t="inlineStr">
@@ -11399,16 +11391,8 @@
           <t>OFF</t>
         </is>
       </c>
-      <c r="BU5" s="0" t="inlineStr">
-        <is>
-          <t>Clone Trooper</t>
-        </is>
-      </c>
-      <c r="BV5" s="0" t="inlineStr">
-        <is>
-          <t>Maz Kanata</t>
-        </is>
-      </c>
+      <c r="BU5" s="0" t="inlineStr"/>
+      <c r="BV5" s="0" t="inlineStr"/>
       <c r="BW5" s="0" t="inlineStr"/>
       <c r="BX5" s="0" t="inlineStr"/>
       <c r="BY5" s="0" t="inlineStr">
@@ -11423,7 +11407,7 @@
       </c>
       <c r="CA5" s="0" t="inlineStr">
         <is>
-          <t>Jannah</t>
+          <t>Rancor</t>
         </is>
       </c>
       <c r="CB5" s="0" t="inlineStr"/>
@@ -11477,11 +11461,7 @@
         </is>
       </c>
       <c r="CT5" s="0" t="inlineStr"/>
-      <c r="CU5" s="0" t="inlineStr">
-        <is>
-          <t>Anakin Skywalker</t>
-        </is>
-      </c>
+      <c r="CU5" s="0" t="inlineStr"/>
       <c r="CV5" s="0" t="inlineStr"/>
       <c r="CW5" s="0" t="inlineStr">
         <is>
@@ -13259,57 +13239,53 @@
       </c>
       <c r="AI2" s="0" t="inlineStr">
         <is>
+          <t>Cad Bane</t>
+        </is>
+      </c>
+      <c r="AJ2" s="0" t="inlineStr">
+        <is>
           <t>Grogu</t>
         </is>
       </c>
-      <c r="AJ2" s="0" t="inlineStr">
+      <c r="AK2" s="0" t="inlineStr">
+        <is>
+          <t>Raddus</t>
+        </is>
+      </c>
+      <c r="AL2" s="0" t="inlineStr">
+        <is>
+          <t>Obi-Wan Kenobi</t>
+        </is>
+      </c>
+      <c r="AM2" s="0" t="inlineStr">
+        <is>
+          <t>Dagobah Snake</t>
+        </is>
+      </c>
+      <c r="AN2" s="0" t="inlineStr">
+        <is>
+          <t>Bib Fortuna</t>
+        </is>
+      </c>
+      <c r="AO2" s="0" t="inlineStr">
         <is>
           <t>Clone Trooper</t>
         </is>
       </c>
-      <c r="AK2" s="0" t="inlineStr">
-        <is>
-          <t>Raddus</t>
-        </is>
-      </c>
-      <c r="AL2" s="0" t="inlineStr">
-        <is>
-          <t>Obi-Wan Kenobi</t>
-        </is>
-      </c>
-      <c r="AM2" s="0" t="inlineStr">
-        <is>
-          <t>Dagobah Snake</t>
-        </is>
-      </c>
-      <c r="AN2" s="0" t="inlineStr">
-        <is>
-          <t>Bib Fortuna</t>
-        </is>
-      </c>
-      <c r="AO2" s="0" t="inlineStr">
-        <is>
-          <t>Clone Trooper</t>
-        </is>
-      </c>
       <c r="AP2" s="0" t="inlineStr">
         <is>
           <t>Palpatine</t>
         </is>
       </c>
-      <c r="AQ2" s="0" t="inlineStr">
-        <is>
-          <t>Rancor</t>
-        </is>
-      </c>
+      <c r="AQ2" s="0" t="inlineStr"/>
       <c r="AR2" s="0" t="inlineStr">
         <is>
-          <t>Bossk</t>
+          <t>Maz Kanata</t>
         </is>
       </c>
       <c r="AS2" s="0" t="inlineStr">
         <is>
-          <t>Grogu</t>
+          <t>K-2SO</t>
         </is>
       </c>
       <c r="AT2" s="0" t="inlineStr">
@@ -13335,7 +13311,7 @@
       </c>
       <c r="AY2" s="0" t="inlineStr">
         <is>
-          <t>Tusken Raider</t>
+          <t>Grogu</t>
         </is>
       </c>
       <c r="AZ2" s="0" t="inlineStr">
@@ -13345,7 +13321,7 @@
       </c>
       <c r="BA2" s="0" t="inlineStr">
         <is>
-          <t>Rancor</t>
+          <t>Obi-Wan Kenobi</t>
         </is>
       </c>
       <c r="BB2" s="0" t="inlineStr">
@@ -13366,10 +13342,14 @@
       </c>
       <c r="BF2" s="0" t="inlineStr">
         <is>
-          <t>Obi-Wan Kenobi</t>
-        </is>
-      </c>
-      <c r="BG2" s="0" t="inlineStr"/>
+          <t>Rancor</t>
+        </is>
+      </c>
+      <c r="BG2" s="0" t="inlineStr">
+        <is>
+          <t>Maz Kanata</t>
+        </is>
+      </c>
       <c r="BH2" s="0" t="inlineStr">
         <is>
           <t>Droideka</t>
@@ -13397,7 +13377,7 @@
       </c>
       <c r="BM2" s="0" t="inlineStr">
         <is>
-          <t>Grogu</t>
+          <t>Bib Fortuna</t>
         </is>
       </c>
       <c r="BN2" s="0" t="inlineStr">
@@ -13412,12 +13392,12 @@
       </c>
       <c r="BP2" s="0" t="inlineStr">
         <is>
-          <t>Clone Trooper</t>
+          <t>Palpatine</t>
         </is>
       </c>
       <c r="BQ2" s="0" t="inlineStr">
         <is>
-          <t>Maz Kanata</t>
+          <t>Tusken Raider</t>
         </is>
       </c>
       <c r="BR2" s="0" t="inlineStr">
@@ -13463,7 +13443,7 @@
       </c>
       <c r="CA2" s="0" t="inlineStr">
         <is>
-          <t>Bossk</t>
+          <t>Cassian Andor</t>
         </is>
       </c>
       <c r="CB2" s="0" t="inlineStr">
@@ -13488,7 +13468,7 @@
       </c>
       <c r="CF2" s="0" t="inlineStr">
         <is>
-          <t>Bossk</t>
+          <t>Cassian Andor</t>
         </is>
       </c>
       <c r="CG2" s="0" t="inlineStr">
@@ -13541,7 +13521,11 @@
           <t>Cassian Andor</t>
         </is>
       </c>
-      <c r="CQ2" s="0" t="inlineStr"/>
+      <c r="CQ2" s="0" t="inlineStr">
+        <is>
+          <t>Battle Droid</t>
+        </is>
+      </c>
       <c r="CR2" s="0" t="inlineStr">
         <is>
           <t>Chirrut Îmwe</t>
@@ -13569,7 +13553,11 @@
         </is>
       </c>
       <c r="CX2" s="0" t="inlineStr"/>
-      <c r="CY2" s="0" t="inlineStr"/>
+      <c r="CY2" s="0" t="inlineStr">
+        <is>
+          <t>Bossk</t>
+        </is>
+      </c>
       <c r="CZ2" s="0" t="inlineStr">
         <is>
           <t>Cassian Andor</t>
@@ -13587,14 +13575,10 @@
       </c>
       <c r="DC2" s="0" t="inlineStr">
         <is>
-          <t>Darth Maul</t>
-        </is>
-      </c>
-      <c r="DD2" s="0" t="inlineStr">
-        <is>
-          <t>Eopie</t>
-        </is>
-      </c>
+          <t>Nien Nunb</t>
+        </is>
+      </c>
+      <c r="DD2" s="0" t="inlineStr"/>
       <c r="DE2" s="0" t="inlineStr">
         <is>
           <t>Darth Revan</t>
@@ -13632,7 +13616,11 @@
         </is>
       </c>
       <c r="DQ2" s="0" t="inlineStr"/>
-      <c r="DR2" s="0" t="inlineStr"/>
+      <c r="DR2" s="0" t="inlineStr">
+        <is>
+          <t>Darth Maul</t>
+        </is>
+      </c>
       <c r="DS2" s="0" t="inlineStr">
         <is>
           <t>Krayt Dragon</t>
@@ -13660,32 +13648,32 @@
         </is>
       </c>
       <c r="DY2" s="0" t="inlineStr"/>
-      <c r="DZ2" s="0" t="inlineStr">
+      <c r="DZ2" s="0" t="inlineStr"/>
+      <c r="EA2" s="0" t="inlineStr">
+        <is>
+          <t>Wedge Antilles</t>
+        </is>
+      </c>
+      <c r="EB2" s="0" t="inlineStr">
+        <is>
+          <t>Wedge Antilles</t>
+        </is>
+      </c>
+      <c r="EC2" s="0" t="inlineStr">
+        <is>
+          <t>Krayt Dragon</t>
+        </is>
+      </c>
+      <c r="ED2" s="0" t="inlineStr">
+        <is>
+          <t>Reek</t>
+        </is>
+      </c>
+      <c r="EE2" s="0" t="inlineStr">
         <is>
           <t>Gar Saxon</t>
         </is>
       </c>
-      <c r="EA2" s="0" t="inlineStr">
-        <is>
-          <t>Wedge Antilles</t>
-        </is>
-      </c>
-      <c r="EB2" s="0" t="inlineStr">
-        <is>
-          <t>Wedge Antilles</t>
-        </is>
-      </c>
-      <c r="EC2" s="0" t="inlineStr">
-        <is>
-          <t>Krayt Dragon</t>
-        </is>
-      </c>
-      <c r="ED2" s="0" t="inlineStr">
-        <is>
-          <t>Reek</t>
-        </is>
-      </c>
-      <c r="EE2" s="0" t="inlineStr"/>
       <c r="EF2" s="0" t="inlineStr"/>
       <c r="EG2" s="0" t="inlineStr"/>
       <c r="EH2" s="0" t="inlineStr">
@@ -13696,7 +13684,7 @@
       <c r="EI2" s="0" t="inlineStr"/>
       <c r="EJ2" s="0" t="inlineStr">
         <is>
-          <t>Taron Malicos</t>
+          <t>Gar Saxon</t>
         </is>
       </c>
       <c r="EK2" s="0" t="inlineStr"/>
@@ -13705,25 +13693,13 @@
           <t>Wedge Antilles</t>
         </is>
       </c>
-      <c r="EM2" s="0" t="inlineStr">
-        <is>
-          <t>Krayt Dragon</t>
-        </is>
-      </c>
+      <c r="EM2" s="0" t="inlineStr"/>
       <c r="EN2" s="0" t="inlineStr"/>
       <c r="EO2" s="0" t="inlineStr"/>
-      <c r="EP2" s="0" t="inlineStr">
-        <is>
-          <t>Raddus</t>
-        </is>
-      </c>
+      <c r="EP2" s="0" t="inlineStr"/>
       <c r="EQ2" s="0" t="inlineStr"/>
       <c r="ER2" s="0" t="inlineStr"/>
-      <c r="ES2" s="0" t="inlineStr">
-        <is>
-          <t>Reek</t>
-        </is>
-      </c>
+      <c r="ES2" s="0" t="inlineStr"/>
       <c r="ET2" s="0" t="inlineStr"/>
       <c r="EU2" s="0" t="inlineStr">
         <is>
@@ -13934,10 +13910,14 @@
           <t>Rancor</t>
         </is>
       </c>
-      <c r="AM3" s="0" t="inlineStr"/>
+      <c r="AM3" s="0" t="inlineStr">
+        <is>
+          <t>Anakin Skywalker</t>
+        </is>
+      </c>
       <c r="AN3" s="0" t="inlineStr">
         <is>
-          <t>Grogu</t>
+          <t>Droideka</t>
         </is>
       </c>
       <c r="AO3" s="0" t="inlineStr">
@@ -13981,11 +13961,7 @@
           <t>Dagobah Snake</t>
         </is>
       </c>
-      <c r="AX3" s="0" t="inlineStr">
-        <is>
-          <t>Grogu</t>
-        </is>
-      </c>
+      <c r="AX3" s="0" t="inlineStr"/>
       <c r="AY3" s="0" t="inlineStr">
         <is>
           <t>Clone Trooper</t>
@@ -13997,11 +13973,7 @@
           <t>Baze Malbus</t>
         </is>
       </c>
-      <c r="BB3" s="0" t="inlineStr">
-        <is>
-          <t>Maz Kanata</t>
-        </is>
-      </c>
+      <c r="BB3" s="0" t="inlineStr"/>
       <c r="BC3" s="0" t="inlineStr">
         <is>
           <t>Bib Fortuna</t>
@@ -14009,7 +13981,7 @@
       </c>
       <c r="BD3" s="0" t="inlineStr">
         <is>
-          <t>Tusken Raider</t>
+          <t>Grogu</t>
         </is>
       </c>
       <c r="BE3" s="0" t="inlineStr">
@@ -14017,7 +13989,11 @@
           <t>Raddus</t>
         </is>
       </c>
-      <c r="BF3" s="0" t="inlineStr"/>
+      <c r="BF3" s="0" t="inlineStr">
+        <is>
+          <t>Obi-Wan Kenobi</t>
+        </is>
+      </c>
       <c r="BG3" s="0" t="inlineStr">
         <is>
           <t>Dagobah Snake</t>
@@ -14028,11 +14004,7 @@
           <t>Bib Fortuna</t>
         </is>
       </c>
-      <c r="BI3" s="0" t="inlineStr">
-        <is>
-          <t>Clone Trooper</t>
-        </is>
-      </c>
+      <c r="BI3" s="0" t="inlineStr"/>
       <c r="BJ3" s="0" t="inlineStr">
         <is>
           <t>Palpatine</t>
@@ -14040,7 +14012,7 @@
       </c>
       <c r="BK3" s="0" t="inlineStr">
         <is>
-          <t>Clone Trooper</t>
+          <t>Obi-Wan Kenobi</t>
         </is>
       </c>
       <c r="BL3" s="0" t="inlineStr"/>
@@ -14061,32 +14033,32 @@
       </c>
       <c r="BP3" s="0" t="inlineStr">
         <is>
+          <t>Rancor</t>
+        </is>
+      </c>
+      <c r="BQ3" s="0" t="inlineStr">
+        <is>
+          <t>Maz Kanata</t>
+        </is>
+      </c>
+      <c r="BR3" s="0" t="inlineStr">
+        <is>
+          <t>K-2SO</t>
+        </is>
+      </c>
+      <c r="BS3" s="0" t="inlineStr">
+        <is>
+          <t>C-3PO</t>
+        </is>
+      </c>
+      <c r="BT3" s="0" t="inlineStr">
+        <is>
+          <t>Bao-Dur</t>
+        </is>
+      </c>
+      <c r="BU3" s="0" t="inlineStr">
+        <is>
           <t>Obi-Wan Kenobi</t>
-        </is>
-      </c>
-      <c r="BQ3" s="0" t="inlineStr">
-        <is>
-          <t>Dagobah Snake</t>
-        </is>
-      </c>
-      <c r="BR3" s="0" t="inlineStr">
-        <is>
-          <t>K-2SO</t>
-        </is>
-      </c>
-      <c r="BS3" s="0" t="inlineStr">
-        <is>
-          <t>C-3PO</t>
-        </is>
-      </c>
-      <c r="BT3" s="0" t="inlineStr">
-        <is>
-          <t>Bao-Dur</t>
-        </is>
-      </c>
-      <c r="BU3" s="0" t="inlineStr">
-        <is>
-          <t>Rancor</t>
         </is>
       </c>
       <c r="BV3" s="0" t="inlineStr">
@@ -14132,7 +14104,11 @@
           <t>Zaalbar</t>
         </is>
       </c>
-      <c r="CG3" s="0" t="inlineStr"/>
+      <c r="CG3" s="0" t="inlineStr">
+        <is>
+          <t>Battle Droid</t>
+        </is>
+      </c>
       <c r="CH3" s="0" t="inlineStr">
         <is>
           <t>C-3PO</t>
@@ -14143,11 +14119,7 @@
           <t>Nien Nunb</t>
         </is>
       </c>
-      <c r="CJ3" s="0" t="inlineStr">
-        <is>
-          <t>Bossk</t>
-        </is>
-      </c>
+      <c r="CJ3" s="0" t="inlineStr"/>
       <c r="CK3" s="0" t="inlineStr">
         <is>
           <t>OFF</t>
@@ -14179,21 +14151,13 @@
           <t>Battle Droid</t>
         </is>
       </c>
-      <c r="CR3" s="0" t="inlineStr">
-        <is>
-          <t>Count Dooku</t>
-        </is>
-      </c>
+      <c r="CR3" s="0" t="inlineStr"/>
       <c r="CS3" s="0" t="inlineStr">
         <is>
           <t>Nien Nunb</t>
         </is>
       </c>
-      <c r="CT3" s="0" t="inlineStr">
-        <is>
-          <t>Bossk</t>
-        </is>
-      </c>
+      <c r="CT3" s="0" t="inlineStr"/>
       <c r="CU3" s="0" t="inlineStr"/>
       <c r="CV3" s="0" t="inlineStr">
         <is>
@@ -14206,11 +14170,7 @@
           <t>Kanan Jarrus</t>
         </is>
       </c>
-      <c r="CY3" s="0" t="inlineStr">
-        <is>
-          <t>Bossk</t>
-        </is>
-      </c>
+      <c r="CY3" s="0" t="inlineStr"/>
       <c r="CZ3" s="0" t="inlineStr">
         <is>
           <t>Nien Nunb</t>
@@ -14276,7 +14236,11 @@
           <t>Sy Snootles</t>
         </is>
       </c>
-      <c r="DM3" s="0" t="inlineStr"/>
+      <c r="DM3" s="0" t="inlineStr">
+        <is>
+          <t>Darth Maul</t>
+        </is>
+      </c>
       <c r="DN3" s="0" t="inlineStr"/>
       <c r="DO3" s="0" t="inlineStr"/>
       <c r="DP3" s="0" t="inlineStr">
@@ -14292,17 +14256,17 @@
         </is>
       </c>
       <c r="DT3" s="0" t="inlineStr"/>
-      <c r="DU3" s="0" t="inlineStr"/>
+      <c r="DU3" s="0" t="inlineStr">
+        <is>
+          <t>Gar Saxon</t>
+        </is>
+      </c>
       <c r="DV3" s="0" t="inlineStr">
         <is>
           <t>Wedge Antilles</t>
         </is>
       </c>
-      <c r="DW3" s="0" t="inlineStr">
-        <is>
-          <t>Darth Maul</t>
-        </is>
-      </c>
+      <c r="DW3" s="0" t="inlineStr"/>
       <c r="DX3" s="0" t="inlineStr"/>
       <c r="DY3" s="0" t="inlineStr"/>
       <c r="DZ3" s="0" t="inlineStr"/>
@@ -14317,17 +14281,9 @@
           <t>Wedge Antilles</t>
         </is>
       </c>
-      <c r="EH3" s="0" t="inlineStr">
-        <is>
-          <t>Krayt Dragon</t>
-        </is>
-      </c>
+      <c r="EH3" s="0" t="inlineStr"/>
       <c r="EI3" s="0" t="inlineStr"/>
-      <c r="EJ3" s="0" t="inlineStr">
-        <is>
-          <t>Gar Saxon</t>
-        </is>
-      </c>
+      <c r="EJ3" s="0" t="inlineStr"/>
       <c r="EK3" s="0" t="inlineStr">
         <is>
           <t>Raddus</t>
@@ -14336,7 +14292,11 @@
       <c r="EL3" s="0" t="inlineStr"/>
       <c r="EM3" s="0" t="inlineStr"/>
       <c r="EN3" s="0" t="inlineStr"/>
-      <c r="EO3" s="0" t="inlineStr"/>
+      <c r="EO3" s="0" t="inlineStr">
+        <is>
+          <t>Gar Saxon</t>
+        </is>
+      </c>
       <c r="EP3" s="0" t="inlineStr">
         <is>
           <t>Wedge Antilles</t>
@@ -14364,7 +14324,11 @@
         </is>
       </c>
       <c r="EV3" s="0" t="inlineStr"/>
-      <c r="EW3" s="0" t="inlineStr"/>
+      <c r="EW3" s="0" t="inlineStr">
+        <is>
+          <t>Krayt Dragon</t>
+        </is>
+      </c>
       <c r="EX3" s="0" t="inlineStr"/>
       <c r="EY3" s="0" t="inlineStr"/>
       <c r="EZ3" s="0" t="inlineStr"/>
@@ -14554,7 +14518,7 @@
       </c>
       <c r="AJ4" s="0" t="inlineStr">
         <is>
-          <t>Asajj Ventress</t>
+          <t>Clone Trooper</t>
         </is>
       </c>
       <c r="AK4" s="0" t="inlineStr">
@@ -14569,83 +14533,83 @@
       </c>
       <c r="AM4" s="0" t="inlineStr">
         <is>
+          <t>Bossk</t>
+        </is>
+      </c>
+      <c r="AN4" s="0" t="inlineStr">
+        <is>
+          <t>K-2SO</t>
+        </is>
+      </c>
+      <c r="AO4" s="0" t="inlineStr">
+        <is>
+          <t>Grogu</t>
+        </is>
+      </c>
+      <c r="AP4" s="0" t="inlineStr">
+        <is>
+          <t>Raddus</t>
+        </is>
+      </c>
+      <c r="AQ4" s="0" t="inlineStr">
+        <is>
+          <t>Obi-Wan Kenobi</t>
+        </is>
+      </c>
+      <c r="AR4" s="0" t="inlineStr">
+        <is>
+          <t>Dagobah Snake</t>
+        </is>
+      </c>
+      <c r="AS4" s="0" t="inlineStr">
+        <is>
+          <t>Droideka</t>
+        </is>
+      </c>
+      <c r="AT4" s="0" t="inlineStr">
+        <is>
+          <t>Tusken Raider</t>
+        </is>
+      </c>
+      <c r="AU4" s="0" t="inlineStr">
+        <is>
+          <t>Palpatine</t>
+        </is>
+      </c>
+      <c r="AV4" s="0" t="inlineStr">
+        <is>
+          <t>Greedo</t>
+        </is>
+      </c>
+      <c r="AW4" s="0" t="inlineStr"/>
+      <c r="AX4" s="0" t="inlineStr">
+        <is>
+          <t>Droideka</t>
+        </is>
+      </c>
+      <c r="AY4" s="0" t="inlineStr">
+        <is>
+          <t>Jannah</t>
+        </is>
+      </c>
+      <c r="AZ4" s="0" t="inlineStr">
+        <is>
+          <t>Palpatine</t>
+        </is>
+      </c>
+      <c r="BA4" s="0" t="inlineStr">
+        <is>
+          <t>Greedo</t>
+        </is>
+      </c>
+      <c r="BB4" s="0" t="inlineStr">
+        <is>
           <t>Maz Kanata</t>
         </is>
       </c>
-      <c r="AN4" s="0" t="inlineStr">
-        <is>
-          <t>K-2SO</t>
-        </is>
-      </c>
-      <c r="AO4" s="0" t="inlineStr">
-        <is>
-          <t>Cad Bane</t>
-        </is>
-      </c>
-      <c r="AP4" s="0" t="inlineStr">
-        <is>
-          <t>Raddus</t>
-        </is>
-      </c>
-      <c r="AQ4" s="0" t="inlineStr">
-        <is>
-          <t>Obi-Wan Kenobi</t>
-        </is>
-      </c>
-      <c r="AR4" s="0" t="inlineStr">
-        <is>
-          <t>Dagobah Snake</t>
-        </is>
-      </c>
-      <c r="AS4" s="0" t="inlineStr">
+      <c r="BC4" s="0" t="inlineStr">
         <is>
           <t>Droideka</t>
-        </is>
-      </c>
-      <c r="AT4" s="0" t="inlineStr">
-        <is>
-          <t>Tusken Raider</t>
-        </is>
-      </c>
-      <c r="AU4" s="0" t="inlineStr">
-        <is>
-          <t>Palpatine</t>
-        </is>
-      </c>
-      <c r="AV4" s="0" t="inlineStr">
-        <is>
-          <t>Rancor</t>
-        </is>
-      </c>
-      <c r="AW4" s="0" t="inlineStr">
-        <is>
-          <t>Anakin Skywalker</t>
-        </is>
-      </c>
-      <c r="AX4" s="0" t="inlineStr">
-        <is>
-          <t>Droideka</t>
-        </is>
-      </c>
-      <c r="AY4" s="0" t="inlineStr">
-        <is>
-          <t>Jannah</t>
-        </is>
-      </c>
-      <c r="AZ4" s="0" t="inlineStr">
-        <is>
-          <t>Palpatine</t>
-        </is>
-      </c>
-      <c r="BA4" s="0" t="inlineStr">
-        <is>
-          <t>Greedo</t>
-        </is>
-      </c>
-      <c r="BB4" s="0" t="inlineStr"/>
-      <c r="BC4" s="0" t="inlineStr">
-        <is>
-          <t>Grogu</t>
         </is>
       </c>
       <c r="BD4" s="0" t="inlineStr">
@@ -14667,17 +14631,13 @@
       <c r="BH4" s="0" t="inlineStr"/>
       <c r="BI4" s="0" t="inlineStr">
         <is>
-          <t>Asajj Ventress</t>
-        </is>
-      </c>
-      <c r="BJ4" s="0" t="inlineStr">
-        <is>
-          <t>Darth Maul</t>
-        </is>
-      </c>
+          <t>Clone Trooper</t>
+        </is>
+      </c>
+      <c r="BJ4" s="0" t="inlineStr"/>
       <c r="BK4" s="0" t="inlineStr">
         <is>
-          <t>Greedo</t>
+          <t>Clone Trooper</t>
         </is>
       </c>
       <c r="BL4" s="0" t="inlineStr">
@@ -14687,7 +14647,7 @@
       </c>
       <c r="BM4" s="0" t="inlineStr">
         <is>
-          <t>Battle Droid</t>
+          <t>Grogu</t>
         </is>
       </c>
       <c r="BN4" s="0" t="inlineStr">
@@ -14702,7 +14662,7 @@
       </c>
       <c r="BP4" s="0" t="inlineStr">
         <is>
-          <t>Rancor</t>
+          <t>Clone Trooper</t>
         </is>
       </c>
       <c r="BQ4" s="0" t="inlineStr">
@@ -14727,7 +14687,7 @@
       </c>
       <c r="BU4" s="0" t="inlineStr">
         <is>
-          <t>Obi-Wan Kenobi</t>
+          <t>Baze Malbus</t>
         </is>
       </c>
       <c r="BV4" s="0" t="inlineStr">
@@ -14742,7 +14702,7 @@
       </c>
       <c r="BX4" s="0" t="inlineStr">
         <is>
-          <t>Count Dooku</t>
+          <t>C-3PO</t>
         </is>
       </c>
       <c r="BY4" s="0" t="inlineStr">
@@ -14794,7 +14754,11 @@
           <t>OFF</t>
         </is>
       </c>
-      <c r="CL4" s="0" t="inlineStr"/>
+      <c r="CL4" s="0" t="inlineStr">
+        <is>
+          <t>Battle Droid</t>
+        </is>
+      </c>
       <c r="CM4" s="0" t="inlineStr">
         <is>
           <t>Nien Nunb</t>
@@ -14847,7 +14811,11 @@
           <t>Darth Revan</t>
         </is>
       </c>
-      <c r="CY4" s="0" t="inlineStr"/>
+      <c r="CY4" s="0" t="inlineStr">
+        <is>
+          <t>Eopie</t>
+        </is>
+      </c>
       <c r="CZ4" s="0" t="inlineStr">
         <is>
           <t>Chirrut Îmwe</t>
@@ -14866,7 +14834,7 @@
       </c>
       <c r="DD4" s="0" t="inlineStr">
         <is>
-          <t>Bossk</t>
+          <t>Eopie</t>
         </is>
       </c>
       <c r="DE4" s="0" t="inlineStr">
@@ -14901,11 +14869,7 @@
           <t>Chirrut Îmwe</t>
         </is>
       </c>
-      <c r="DM4" s="0" t="inlineStr">
-        <is>
-          <t>Darth Maul</t>
-        </is>
-      </c>
+      <c r="DM4" s="0" t="inlineStr"/>
       <c r="DN4" s="0" t="inlineStr"/>
       <c r="DO4" s="0" t="inlineStr">
         <is>
@@ -14934,7 +14898,11 @@
           <t>Taron Malicos</t>
         </is>
       </c>
-      <c r="DV4" s="0" t="inlineStr"/>
+      <c r="DV4" s="0" t="inlineStr">
+        <is>
+          <t>Raddus</t>
+        </is>
+      </c>
       <c r="DW4" s="0" t="inlineStr">
         <is>
           <t>Wedge Antilles</t>
@@ -14973,7 +14941,11 @@
           <t>Sy Snootles</t>
         </is>
       </c>
-      <c r="EG4" s="0" t="inlineStr"/>
+      <c r="EG4" s="0" t="inlineStr">
+        <is>
+          <t>Darth Maul</t>
+        </is>
+      </c>
       <c r="EH4" s="0" t="inlineStr"/>
       <c r="EI4" s="0" t="inlineStr">
         <is>
@@ -14988,11 +14960,7 @@
       </c>
       <c r="EL4" s="0" t="inlineStr"/>
       <c r="EM4" s="0" t="inlineStr"/>
-      <c r="EN4" s="0" t="inlineStr">
-        <is>
-          <t>Reek</t>
-        </is>
-      </c>
+      <c r="EN4" s="0" t="inlineStr"/>
       <c r="EO4" s="0" t="inlineStr">
         <is>
           <t>Taron Malicos</t>
@@ -15000,15 +14968,11 @@
       </c>
       <c r="EP4" s="0" t="inlineStr">
         <is>
-          <t>Sy Snootles</t>
+          <t>Raddus</t>
         </is>
       </c>
       <c r="EQ4" s="0" t="inlineStr"/>
-      <c r="ER4" s="0" t="inlineStr">
-        <is>
-          <t>Krayt Dragon</t>
-        </is>
-      </c>
+      <c r="ER4" s="0" t="inlineStr"/>
       <c r="ES4" s="0" t="inlineStr"/>
       <c r="ET4" s="0" t="inlineStr">
         <is>
@@ -15021,11 +14985,7 @@
           <t>Wedge Antilles</t>
         </is>
       </c>
-      <c r="EW4" s="0" t="inlineStr">
-        <is>
-          <t>Krayt Dragon</t>
-        </is>
-      </c>
+      <c r="EW4" s="0" t="inlineStr"/>
       <c r="EX4" s="0" t="inlineStr"/>
       <c r="EY4" s="0" t="inlineStr"/>
       <c r="EZ4" s="0" t="inlineStr"/>
@@ -15234,7 +15194,7 @@
       </c>
       <c r="AM5" s="0" t="inlineStr">
         <is>
-          <t>Tusken Raider</t>
+          <t>Maz Kanata</t>
         </is>
       </c>
       <c r="AN5" s="0" t="inlineStr"/>
@@ -15246,18 +15206,18 @@
       </c>
       <c r="AQ5" s="0" t="inlineStr">
         <is>
-          <t>Baze Malbus</t>
+          <t>Rancor</t>
         </is>
       </c>
       <c r="AR5" s="0" t="inlineStr">
         <is>
-          <t>Maz Kanata</t>
+          <t>Anakin Skywalker</t>
         </is>
       </c>
       <c r="AS5" s="0" t="inlineStr"/>
       <c r="AT5" s="0" t="inlineStr">
         <is>
-          <t>Jannah</t>
+          <t>Grogu</t>
         </is>
       </c>
       <c r="AU5" s="0" t="inlineStr">
@@ -15267,7 +15227,7 @@
       </c>
       <c r="AV5" s="0" t="inlineStr">
         <is>
-          <t>Obi-Wan Kenobi</t>
+          <t>Rancor</t>
         </is>
       </c>
       <c r="AW5" s="0" t="inlineStr">
@@ -15290,13 +15250,21 @@
           <t>Bao-Dur</t>
         </is>
       </c>
-      <c r="BA5" s="0" t="inlineStr"/>
+      <c r="BA5" s="0" t="inlineStr">
+        <is>
+          <t>Rancor</t>
+        </is>
+      </c>
       <c r="BB5" s="0" t="inlineStr">
         <is>
           <t>Bossk</t>
         </is>
       </c>
-      <c r="BC5" s="0" t="inlineStr"/>
+      <c r="BC5" s="0" t="inlineStr">
+        <is>
+          <t>Cad Bane</t>
+        </is>
+      </c>
       <c r="BD5" s="0" t="inlineStr">
         <is>
           <t>Clone Trooper</t>
@@ -15305,60 +15273,60 @@
       <c r="BE5" s="0" t="inlineStr"/>
       <c r="BF5" s="0" t="inlineStr">
         <is>
-          <t>Rancor</t>
+          <t>Greedo</t>
         </is>
       </c>
       <c r="BG5" s="0" t="inlineStr">
         <is>
+          <t>Bossk</t>
+        </is>
+      </c>
+      <c r="BH5" s="0" t="inlineStr">
+        <is>
+          <t>K-2SO</t>
+        </is>
+      </c>
+      <c r="BI5" s="0" t="inlineStr">
+        <is>
+          <t>Grogu</t>
+        </is>
+      </c>
+      <c r="BJ5" s="0" t="inlineStr">
+        <is>
+          <t>Raddus</t>
+        </is>
+      </c>
+      <c r="BK5" s="0" t="inlineStr">
+        <is>
+          <t>Baze Malbus</t>
+        </is>
+      </c>
+      <c r="BL5" s="0" t="inlineStr">
+        <is>
           <t>Maz Kanata</t>
         </is>
       </c>
-      <c r="BH5" s="0" t="inlineStr">
-        <is>
-          <t>Grogu</t>
-        </is>
-      </c>
-      <c r="BI5" s="0" t="inlineStr">
+      <c r="BM5" s="0" t="inlineStr">
+        <is>
+          <t>K-2SO</t>
+        </is>
+      </c>
+      <c r="BN5" s="0" t="inlineStr">
+        <is>
+          <t>OFF</t>
+        </is>
+      </c>
+      <c r="BO5" s="0" t="inlineStr">
         <is>
           <t>Jannah</t>
         </is>
       </c>
-      <c r="BJ5" s="0" t="inlineStr">
-        <is>
-          <t>Raddus</t>
-        </is>
-      </c>
-      <c r="BK5" s="0" t="inlineStr">
+      <c r="BP5" s="0" t="inlineStr">
         <is>
           <t>Obi-Wan Kenobi</t>
         </is>
       </c>
-      <c r="BL5" s="0" t="inlineStr">
-        <is>
-          <t>Maz Kanata</t>
-        </is>
-      </c>
-      <c r="BM5" s="0" t="inlineStr">
-        <is>
-          <t>K-2SO</t>
-        </is>
-      </c>
-      <c r="BN5" s="0" t="inlineStr">
-        <is>
-          <t>OFF</t>
-        </is>
-      </c>
-      <c r="BO5" s="0" t="inlineStr">
-        <is>
-          <t>Jannah</t>
-        </is>
-      </c>
-      <c r="BP5" s="0" t="inlineStr"/>
-      <c r="BQ5" s="0" t="inlineStr">
-        <is>
-          <t>Anakin Skywalker</t>
-        </is>
-      </c>
+      <c r="BQ5" s="0" t="inlineStr"/>
       <c r="BR5" s="0" t="inlineStr">
         <is>
           <t>Grogu</t>
@@ -15370,7 +15338,11 @@
           <t>Darth Revan</t>
         </is>
       </c>
-      <c r="BU5" s="0" t="inlineStr"/>
+      <c r="BU5" s="0" t="inlineStr">
+        <is>
+          <t>Rancor</t>
+        </is>
+      </c>
       <c r="BV5" s="0" t="inlineStr">
         <is>
           <t>The Mandalorian</t>
@@ -15403,7 +15375,7 @@
       </c>
       <c r="CB5" s="0" t="inlineStr">
         <is>
-          <t>Eopie</t>
+          <t>Battle Droid</t>
         </is>
       </c>
       <c r="CC5" s="0" t="inlineStr"/>
@@ -15433,7 +15405,11 @@
           <t>Darth Revan</t>
         </is>
       </c>
-      <c r="CJ5" s="0" t="inlineStr"/>
+      <c r="CJ5" s="0" t="inlineStr">
+        <is>
+          <t>Bossk</t>
+        </is>
+      </c>
       <c r="CK5" s="0" t="inlineStr">
         <is>
           <t>OFF</t>
@@ -15502,7 +15478,11 @@
         </is>
       </c>
       <c r="CZ5" s="0" t="inlineStr"/>
-      <c r="DA5" s="0" t="inlineStr"/>
+      <c r="DA5" s="0" t="inlineStr">
+        <is>
+          <t>The Mandalorian</t>
+        </is>
+      </c>
       <c r="DB5" s="0" t="inlineStr"/>
       <c r="DC5" s="0" t="inlineStr"/>
       <c r="DD5" s="0" t="inlineStr">
@@ -15523,7 +15503,7 @@
       <c r="DG5" s="0" t="inlineStr"/>
       <c r="DH5" s="0" t="inlineStr">
         <is>
-          <t>Darth Maul</t>
+          <t>Kanan Jarrus</t>
         </is>
       </c>
       <c r="DI5" s="0" t="inlineStr"/>
@@ -15570,16 +15550,8 @@
       <c r="DR5" s="0" t="inlineStr"/>
       <c r="DS5" s="0" t="inlineStr"/>
       <c r="DT5" s="0" t="inlineStr"/>
-      <c r="DU5" s="0" t="inlineStr">
-        <is>
-          <t>Gar Saxon</t>
-        </is>
-      </c>
-      <c r="DV5" s="0" t="inlineStr">
-        <is>
-          <t>Raddus</t>
-        </is>
-      </c>
+      <c r="DU5" s="0" t="inlineStr"/>
+      <c r="DV5" s="0" t="inlineStr"/>
       <c r="DW5" s="0" t="inlineStr"/>
       <c r="DX5" s="0" t="inlineStr"/>
       <c r="DY5" s="0" t="inlineStr"/>
@@ -15593,12 +15565,16 @@
           <t>Raddus</t>
         </is>
       </c>
-      <c r="EB5" s="0" t="inlineStr"/>
+      <c r="EB5" s="0" t="inlineStr">
+        <is>
+          <t>Darth Maul</t>
+        </is>
+      </c>
       <c r="EC5" s="0" t="inlineStr"/>
       <c r="ED5" s="0" t="inlineStr"/>
       <c r="EE5" s="0" t="inlineStr">
         <is>
-          <t>Gar Saxon</t>
+          <t>Taron Malicos</t>
         </is>
       </c>
       <c r="EF5" s="0" t="inlineStr">
@@ -15615,13 +15591,21 @@
         </is>
       </c>
       <c r="EK5" s="0" t="inlineStr"/>
-      <c r="EL5" s="0" t="inlineStr"/>
+      <c r="EL5" s="0" t="inlineStr">
+        <is>
+          <t>Darth Maul</t>
+        </is>
+      </c>
       <c r="EM5" s="0" t="inlineStr">
         <is>
           <t>K-2SO</t>
         </is>
       </c>
-      <c r="EN5" s="0" t="inlineStr"/>
+      <c r="EN5" s="0" t="inlineStr">
+        <is>
+          <t>Reek</t>
+        </is>
+      </c>
       <c r="EO5" s="0" t="inlineStr">
         <is>
           <t>Taron Malicos</t>
@@ -15629,9 +15613,21 @@
       </c>
       <c r="EP5" s="0" t="inlineStr"/>
       <c r="EQ5" s="0" t="inlineStr"/>
-      <c r="ER5" s="0" t="inlineStr"/>
-      <c r="ES5" s="0" t="inlineStr"/>
-      <c r="ET5" s="0" t="inlineStr"/>
+      <c r="ER5" s="0" t="inlineStr">
+        <is>
+          <t>Krayt Dragon</t>
+        </is>
+      </c>
+      <c r="ES5" s="0" t="inlineStr">
+        <is>
+          <t>Reek</t>
+        </is>
+      </c>
+      <c r="ET5" s="0" t="inlineStr">
+        <is>
+          <t>Gar Saxon</t>
+        </is>
+      </c>
       <c r="EU5" s="0" t="inlineStr">
         <is>
           <t>Sy Snootles</t>
@@ -17127,6 +17123,8 @@
       <c r="AA2" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve">(8H-10H) 4-LOM:
+Anakin Skywalker
+(8H-10H) 4-LOM:
 Dagobah Snake
 </t>
         </is>
@@ -17165,14 +17163,14 @@
       <c r="AI2" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve">(8H-10H) Trilla Suduri:
+Cad Bane
+</t>
+        </is>
+      </c>
+      <c r="AJ2" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(8H-10H) Trilla Suduri:
 Grogu
-</t>
-        </is>
-      </c>
-      <c r="AJ2" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(8H-10H) Trilla Suduri:
-Clone Trooper
 </t>
         </is>
       </c>
@@ -17191,6 +17189,109 @@
         </is>
       </c>
       <c r="AM2" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(8H-10H) Trilla Suduri:
+Dagobah Snake
+</t>
+        </is>
+      </c>
+      <c r="AN2" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(8H-10H) Trilla Suduri:
+Bib Fortuna
+</t>
+        </is>
+      </c>
+      <c r="AO2" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(8H-10H) Trilla Suduri:
+Asajj Ventress
+(8H-10H) Trilla Suduri:
+Clone Trooper
+</t>
+        </is>
+      </c>
+      <c r="AP2" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(8H-10H) Trilla Suduri:
+Palpatine
+</t>
+        </is>
+      </c>
+      <c r="AQ2" s="0" t="inlineStr"/>
+      <c r="AR2" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(8H-10H) Trilla Suduri:
+Bossk
+(8H-10H) Trilla Suduri:
+Maz Kanata
+</t>
+        </is>
+      </c>
+      <c r="AS2" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(8H-10H) Trilla Suduri:
+K-2SO
+</t>
+        </is>
+      </c>
+      <c r="AT2" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(8H-10H) Trilla Suduri:
+Asajj Ventress
+(8H-10H) Trilla Suduri:
+Clone Trooper
+</t>
+        </is>
+      </c>
+      <c r="AU2" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(8H-10H) Trilla Suduri:
+Darth Maul
+</t>
+        </is>
+      </c>
+      <c r="AV2" s="0" t="inlineStr"/>
+      <c r="AW2" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(8H-10H) Trilla Suduri:
+Maz Kanata
+</t>
+        </is>
+      </c>
+      <c r="AX2" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(8H-10H) Trilla Suduri:
+Cad Bane
+(8H-10H) Trilla Suduri:
+Bib Fortuna
+</t>
+        </is>
+      </c>
+      <c r="AY2" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(8H-10H) Trilla Suduri:
+Tusken Raider
+(8H-10H) Trilla Suduri:
+Grogu
+</t>
+        </is>
+      </c>
+      <c r="AZ2" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(8H-10H) Trilla Suduri:
+Raddus
+</t>
+        </is>
+      </c>
+      <c r="BA2" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(8H-10H) Trilla Suduri:
+Obi-Wan Kenobi
+</t>
+        </is>
+      </c>
+      <c r="BB2" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve">(8H-10H) Trilla Suduri:
 Anakin Skywalker
@@ -17199,121 +17300,6 @@
 </t>
         </is>
       </c>
-      <c r="AN2" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(8H-10H) Trilla Suduri:
-Bib Fortuna
-</t>
-        </is>
-      </c>
-      <c r="AO2" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(8H-10H) Trilla Suduri:
-Asajj Ventress
-(8H-10H) Trilla Suduri:
-Clone Trooper
-</t>
-        </is>
-      </c>
-      <c r="AP2" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(8H-10H) Trilla Suduri:
-Palpatine
-</t>
-        </is>
-      </c>
-      <c r="AQ2" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(8H-10H) Trilla Suduri:
-Rancor
-</t>
-        </is>
-      </c>
-      <c r="AR2" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(8H-10H) Trilla Suduri:
-Anakin Skywalker
-(8H-10H) Trilla Suduri:
-Bossk
-</t>
-        </is>
-      </c>
-      <c r="AS2" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(8H-10H) Trilla Suduri:
-K-2SO
-(8H-10H) Trilla Suduri:
-Grogu
-</t>
-        </is>
-      </c>
-      <c r="AT2" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(8H-10H) Trilla Suduri:
-Asajj Ventress
-(8H-10H) Trilla Suduri:
-Clone Trooper
-</t>
-        </is>
-      </c>
-      <c r="AU2" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(8H-10H) Trilla Suduri:
-Darth Maul
-</t>
-        </is>
-      </c>
-      <c r="AV2" s="0" t="inlineStr"/>
-      <c r="AW2" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(8H-10H) Trilla Suduri:
-Maz Kanata
-</t>
-        </is>
-      </c>
-      <c r="AX2" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(8H-10H) Trilla Suduri:
-Bib Fortuna
-</t>
-        </is>
-      </c>
-      <c r="AY2" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(8H-10H) Trilla Suduri:
-Cad Bane
-(8H-10H) Trilla Suduri:
-Tusken Raider
-</t>
-        </is>
-      </c>
-      <c r="AZ2" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(8H-10H) Trilla Suduri:
-Darth Maul
-(8H-10H) Trilla Suduri:
-Raddus
-</t>
-        </is>
-      </c>
-      <c r="BA2" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(8H-10H) Trilla Suduri:
-Obi-Wan Kenobi
-(8H-10H) Trilla Suduri:
-Rancor
-</t>
-        </is>
-      </c>
-      <c r="BB2" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(8H-10H) Trilla Suduri:
-Anakin Skywalker
-(8H-10H) Trilla Suduri:
-Dagobah Snake
-</t>
-        </is>
-      </c>
       <c r="BC2" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve">(8H-10H) Trilla Suduri:
@@ -17334,11 +17320,17 @@
       <c r="BF2" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve">(8H-10H) Trilla Suduri:
-Obi-Wan Kenobi
-</t>
-        </is>
-      </c>
-      <c r="BG2" s="0" t="inlineStr"/>
+Rancor
+</t>
+        </is>
+      </c>
+      <c r="BG2" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(8H-10H) Trilla Suduri:
+Maz Kanata
+</t>
+        </is>
+      </c>
       <c r="BH2" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve">(8H-10H) 4-LOM:
@@ -17351,6 +17343,8 @@
       <c r="BI2" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve">(8H-10H) Trilla Suduri:
+Asajj Ventress
+(8H-10H) Trilla Suduri:
 Tusken Raider
 </t>
         </is>
@@ -17358,6 +17352,8 @@
       <c r="BJ2" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve">(8H-10H) Trilla Suduri:
+Darth Maul
+(8H-10H) Trilla Suduri:
 Bao-Dur
 </t>
         </is>
@@ -17374,46 +17370,13 @@
       <c r="BL2" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve">(8H-10H) Trilla Suduri:
+Anakin Skywalker
+(8H-10H) Trilla Suduri:
 Tusken Raider
 </t>
         </is>
       </c>
       <c r="BM2" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(8H-10H) Trilla Suduri:
-Bib Fortuna
-(8H-10H) Trilla Suduri:
-Grogu
-</t>
-        </is>
-      </c>
-      <c r="BN2" s="0" t="inlineStr"/>
-      <c r="BO2" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(8H-10H) Trilla Suduri:
-Bao-Dur
-</t>
-        </is>
-      </c>
-      <c r="BP2" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(8H-10H) Trilla Suduri:
-Palpatine
-(8H-10H) Trilla Suduri:
-Clone Trooper
-</t>
-        </is>
-      </c>
-      <c r="BQ2" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(8H-10H) Trilla Suduri:
-Tusken Raider
-(8H-10H) Trilla Suduri:
-Maz Kanata
-</t>
-        </is>
-      </c>
-      <c r="BR2" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve">(8H-10H) Trilla Suduri:
 Battle Droid
@@ -17422,6 +17385,37 @@
 </t>
         </is>
       </c>
+      <c r="BN2" s="0" t="inlineStr"/>
+      <c r="BO2" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(8H-10H) Trilla Suduri:
+Bao-Dur
+</t>
+        </is>
+      </c>
+      <c r="BP2" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(8H-10H) Trilla Suduri:
+Palpatine
+</t>
+        </is>
+      </c>
+      <c r="BQ2" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(8H-10H) Trilla Suduri:
+Tusken Raider
+</t>
+        </is>
+      </c>
+      <c r="BR2" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(8H-10H) Trilla Suduri:
+Cad Bane
+(8H-10H) Trilla Suduri:
+Bib Fortuna
+</t>
+        </is>
+      </c>
       <c r="BS2" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve">(8H-10H) Trilla Suduri:
@@ -17433,8 +17427,6 @@
         <is>
           <t xml:space="preserve">(8H-10H) 4-LOM:
 Asajj Ventress
-(8H-10H) Trilla Suduri:
-Anakin Skywalker
 (8H-10H) Trilla Suduri:
 Jannah
 </t>
@@ -17461,7 +17453,7 @@
       <c r="BW2" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve">(8H-10H) 4-LOM:
-K-2SO
+Asajj Ventress
 (8H-10H) Trilla Suduri:
 Eopie
 </t>
@@ -17477,7 +17469,9 @@
       </c>
       <c r="BZ2" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">(8H-10H) Trilla Suduri:
+          <t xml:space="preserve">(8H-10H) 4-LOM:
+Obi-Wan Kenobi
+(8H-10H) Trilla Suduri:
 Baze Malbus
 </t>
         </is>
@@ -17486,8 +17480,6 @@
         <is>
           <t xml:space="preserve">(8H-10H) Trilla Suduri:
 Cassian Andor
-(8H-10H) Trilla Suduri:
-Bossk
 </t>
         </is>
       </c>
@@ -17495,8 +17487,6 @@
         <is>
           <t xml:space="preserve">(8H-10H) Trilla Suduri:
 Battle Droid
-(8H-10H) Trilla Suduri:
-Battle Droid
 </t>
         </is>
       </c>
@@ -17525,8 +17515,6 @@
         <is>
           <t xml:space="preserve">(8H-10H) Trilla Suduri:
 Cassian Andor
-(8H-10H) Trilla Suduri:
-Bossk
 </t>
         </is>
       </c>
@@ -17600,10 +17588,18 @@
 </t>
         </is>
       </c>
-      <c r="CQ2" s="0" t="inlineStr"/>
+      <c r="CQ2" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(8H-10H) Trilla Suduri:
+Battle Droid
+</t>
+        </is>
+      </c>
       <c r="CR2" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve">(8H-10H) Trilla Suduri:
+Count Dooku
+(8H-10H) Trilla Suduri:
 Chirrut Îmwe
 </t>
         </is>
@@ -17640,6 +17636,8 @@
         <is>
           <t xml:space="preserve">(8H-10H) 4-LOM:
 Sy Snootles
+(8H-10H) Trilla Suduri:
+Bossk
 </t>
         </is>
       </c>
@@ -17668,77 +17666,71 @@
         <is>
           <t xml:space="preserve">(8H-10H) Trilla Suduri:
 Nien Nunb
+</t>
+        </is>
+      </c>
+      <c r="DD2" s="0" t="inlineStr"/>
+      <c r="DE2" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(8H-10H) Trilla Suduri:
+Darth Revan
+</t>
+        </is>
+      </c>
+      <c r="DF2" s="0" t="inlineStr"/>
+      <c r="DG2" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(8H-10H) 4-LOM:
+Count Dooku
+</t>
+        </is>
+      </c>
+      <c r="DH2" s="0" t="inlineStr"/>
+      <c r="DI2" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(8H-10H) 4-LOM:
+Dengar
+</t>
+        </is>
+      </c>
+      <c r="DJ2" s="0" t="inlineStr"/>
+      <c r="DK2" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(8H-10H) Trilla Suduri:
+Taron Malicos
+</t>
+        </is>
+      </c>
+      <c r="DL2" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(8H-10H) Trilla Suduri:
+Wedge Antilles
+</t>
+        </is>
+      </c>
+      <c r="DM2" s="0" t="inlineStr"/>
+      <c r="DN2" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(8H-10H) Trilla Suduri:
+K-2SO
+</t>
+        </is>
+      </c>
+      <c r="DO2" s="0" t="inlineStr"/>
+      <c r="DP2" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(8H-10H) Trilla Suduri:
+Gar Saxon
+</t>
+        </is>
+      </c>
+      <c r="DQ2" s="0" t="inlineStr"/>
+      <c r="DR2" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(8H-10H) 4-LOM:
+Count Dooku
 (8H-10H) Trilla Suduri:
 Darth Maul
-</t>
-        </is>
-      </c>
-      <c r="DD2" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(8H-10H) Trilla Suduri:
-Eopie
-</t>
-        </is>
-      </c>
-      <c r="DE2" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(8H-10H) Trilla Suduri:
-Darth Revan
-</t>
-        </is>
-      </c>
-      <c r="DF2" s="0" t="inlineStr"/>
-      <c r="DG2" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(8H-10H) 4-LOM:
-Count Dooku
-</t>
-        </is>
-      </c>
-      <c r="DH2" s="0" t="inlineStr"/>
-      <c r="DI2" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(8H-10H) 4-LOM:
-Dengar
-</t>
-        </is>
-      </c>
-      <c r="DJ2" s="0" t="inlineStr"/>
-      <c r="DK2" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(8H-10H) Trilla Suduri:
-Taron Malicos
-</t>
-        </is>
-      </c>
-      <c r="DL2" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(8H-10H) Trilla Suduri:
-Wedge Antilles
-</t>
-        </is>
-      </c>
-      <c r="DM2" s="0" t="inlineStr"/>
-      <c r="DN2" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(8H-10H) Trilla Suduri:
-K-2SO
-</t>
-        </is>
-      </c>
-      <c r="DO2" s="0" t="inlineStr"/>
-      <c r="DP2" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(8H-10H) Trilla Suduri:
-Gar Saxon
-</t>
-        </is>
-      </c>
-      <c r="DQ2" s="0" t="inlineStr"/>
-      <c r="DR2" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(8H-10H) 4-LOM:
-Count Dooku
 </t>
         </is>
       </c>
@@ -17787,49 +17779,49 @@
         </is>
       </c>
       <c r="DY2" s="0" t="inlineStr"/>
-      <c r="DZ2" s="0" t="inlineStr">
+      <c r="DZ2" s="0" t="inlineStr"/>
+      <c r="EA2" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(8H-10H) Trilla Suduri:
+Wedge Antilles
+</t>
+        </is>
+      </c>
+      <c r="EB2" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(8H-10H) Trilla Suduri:
+Wedge Antilles
+</t>
+        </is>
+      </c>
+      <c r="EC2" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(8H-10H) Trilla Suduri:
+Krayt Dragon
+</t>
+        </is>
+      </c>
+      <c r="ED2" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(8H-10H) Trilla Suduri:
+Reek
+</t>
+        </is>
+      </c>
+      <c r="EE2" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve">(8H-10H) Trilla Suduri:
 Gar Saxon
 </t>
         </is>
       </c>
-      <c r="EA2" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(8H-10H) Trilla Suduri:
-Wedge Antilles
-</t>
-        </is>
-      </c>
-      <c r="EB2" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(8H-10H) Trilla Suduri:
-Darth Maul
-(8H-10H) Trilla Suduri:
-Wedge Antilles
-</t>
-        </is>
-      </c>
-      <c r="EC2" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(8H-10H) Trilla Suduri:
-Krayt Dragon
-</t>
-        </is>
-      </c>
-      <c r="ED2" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(8H-10H) Trilla Suduri:
-Reek
-</t>
-        </is>
-      </c>
-      <c r="EE2" s="0" t="inlineStr"/>
       <c r="EF2" s="0" t="inlineStr"/>
       <c r="EG2" s="0" t="inlineStr"/>
       <c r="EH2" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve">(8H-10H) Trilla Suduri:
+Krayt Dragon
+(8H-10H) Trilla Suduri:
 K-2SO
 </t>
         </is>
@@ -17845,6 +17837,8 @@
         <is>
           <t xml:space="preserve">(8H-10H) Trilla Suduri:
 Taron Malicos
+(8H-10H) Trilla Suduri:
+Gar Saxon
 </t>
         </is>
       </c>
@@ -17852,48 +17846,34 @@
       <c r="EL2" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve">(8H-10H) Trilla Suduri:
-Darth Maul
-(8H-10H) Trilla Suduri:
 Wedge Antilles
 </t>
         </is>
       </c>
-      <c r="EM2" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(8H-10H) Trilla Suduri:
-Krayt Dragon
-</t>
-        </is>
-      </c>
+      <c r="EM2" s="0" t="inlineStr"/>
       <c r="EN2" s="0" t="inlineStr"/>
       <c r="EO2" s="0" t="inlineStr"/>
-      <c r="EP2" s="0" t="inlineStr">
+      <c r="EP2" s="0" t="inlineStr"/>
+      <c r="EQ2" s="0" t="inlineStr"/>
+      <c r="ER2" s="0" t="inlineStr"/>
+      <c r="ES2" s="0" t="inlineStr"/>
+      <c r="ET2" s="0" t="inlineStr"/>
+      <c r="EU2" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve">(8H-10H) Trilla Suduri:
 Raddus
 </t>
         </is>
       </c>
-      <c r="EQ2" s="0" t="inlineStr"/>
-      <c r="ER2" s="0" t="inlineStr"/>
-      <c r="ES2" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(8H-10H) Trilla Suduri:
-Reek
-</t>
-        </is>
-      </c>
-      <c r="ET2" s="0" t="inlineStr"/>
-      <c r="EU2" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(8H-10H) Trilla Suduri:
-Raddus
-</t>
-        </is>
-      </c>
       <c r="EV2" s="0" t="inlineStr"/>
       <c r="EW2" s="0" t="inlineStr"/>
-      <c r="EX2" s="0" t="inlineStr"/>
+      <c r="EX2" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(8H-10H) 4-LOM:
+Anakin Skywalker
+</t>
+        </is>
+      </c>
       <c r="EY2" s="0" t="inlineStr"/>
       <c r="EZ2" s="0" t="inlineStr">
         <is>
@@ -18082,12 +18062,8 @@
         <is>
           <t xml:space="preserve">(10H-12H) 4-LOM:
 Obi-Wan Kenobi
-(10H-12H) 4-LOM:
-Rancor
 (10H-12H) Plo Koon:
 Bib Fortuna
-(10H-12H) Plo Koon:
-Clone Trooper
 </t>
         </is>
       </c>
@@ -18145,13 +18121,19 @@
 </t>
         </is>
       </c>
-      <c r="AM3" s="0" t="inlineStr"/>
+      <c r="AM3" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(10H-12H) Trilla Suduri:
+Anakin Skywalker
+</t>
+        </is>
+      </c>
       <c r="AN3" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve">(10H-12H) Trilla Suduri:
+Cad Bane
+(10H-12H) Trilla Suduri:
 Droideka
-(10H-12H) Trilla Suduri:
-Grogu
 </t>
         </is>
       </c>
@@ -18182,6 +18164,8 @@
       <c r="AS3" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve">(10H-12H) Trilla Suduri:
+Cad Bane
+(10H-12H) Trilla Suduri:
 Bib Fortuna
 </t>
         </is>
@@ -18204,17 +18188,13 @@
       <c r="AW3" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve">(10H-12H) Trilla Suduri:
+Anakin Skywalker
+(10H-12H) Trilla Suduri:
 Dagobah Snake
 </t>
         </is>
       </c>
-      <c r="AX3" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(10H-12H) Trilla Suduri:
-Grogu
-</t>
-        </is>
-      </c>
+      <c r="AX3" s="0" t="inlineStr"/>
       <c r="AY3" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve">(10H-12H) Trilla Suduri:
@@ -18230,13 +18210,7 @@
 </t>
         </is>
       </c>
-      <c r="BB3" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(10H-12H) Trilla Suduri:
-Maz Kanata
-</t>
-        </is>
-      </c>
+      <c r="BB3" s="0" t="inlineStr"/>
       <c r="BC3" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve">(10H-12H) Trilla Suduri:
@@ -18247,9 +18221,9 @@
       <c r="BD3" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve">(10H-12H) Trilla Suduri:
-Asajj Ventress
+Tusken Raider
 (10H-12H) Trilla Suduri:
-Tusken Raider
+Grogu
 </t>
         </is>
       </c>
@@ -18262,32 +18236,32 @@
 </t>
         </is>
       </c>
-      <c r="BF3" s="0" t="inlineStr"/>
+      <c r="BF3" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(10H-12H) Trilla Suduri:
+Obi-Wan Kenobi
+</t>
+        </is>
+      </c>
       <c r="BG3" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve">(10H-12H) 4-LOM:
 Darth Revan
 (10H-12H) Trilla Suduri:
-Anakin Skywalker
+Dagobah Snake
+</t>
+        </is>
+      </c>
+      <c r="BH3" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(10H-12H) Trilla Suduri:
+Cad Bane
 (10H-12H) Trilla Suduri:
-Dagobah Snake
-</t>
-        </is>
-      </c>
-      <c r="BH3" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(10H-12H) Trilla Suduri:
 Bib Fortuna
 </t>
         </is>
       </c>
-      <c r="BI3" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(10H-12H) Trilla Suduri:
-Clone Trooper
-</t>
-        </is>
-      </c>
+      <c r="BI3" s="0" t="inlineStr"/>
       <c r="BJ3" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve">(10H-12H) 4-LOM:
@@ -18302,7 +18276,7 @@
           <t xml:space="preserve">(10H-12H) Plo Koon:
 Kanan Jarrus
 (10H-12H) Trilla Suduri:
-Clone Trooper
+Obi-Wan Kenobi
 </t>
         </is>
       </c>
@@ -18310,7 +18284,7 @@
       <c r="BM3" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve">(10H-12H) Trilla Suduri:
-Cad Bane
+Asajj Ventress
 (10H-12H) Trilla Suduri:
 Droideka
 </t>
@@ -18320,55 +18294,55 @@
       <c r="BO3" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve">(10H-12H) Trilla Suduri:
-Darth Maul
+Asajj Ventress
+</t>
+        </is>
+      </c>
+      <c r="BP3" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(10H-12H) Trilla Suduri:
+Rancor
+</t>
+        </is>
+      </c>
+      <c r="BQ3" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(10H-12H) Trilla Suduri:
+Dagobah Snake
 (10H-12H) Trilla Suduri:
-Asajj Ventress
-</t>
-        </is>
-      </c>
-      <c r="BP3" s="0" t="inlineStr">
+Maz Kanata
+</t>
+        </is>
+      </c>
+      <c r="BR3" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(10H-12H) Trilla Suduri:
+Battle Droid
+(10H-12H) Trilla Suduri:
+K-2SO
+</t>
+        </is>
+      </c>
+      <c r="BS3" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(10H-12H) Trilla Suduri:
+C-3PO
+</t>
+        </is>
+      </c>
+      <c r="BT3" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(10H-12H) Trilla Suduri:
+Anakin Skywalker
+(10H-12H) Trilla Suduri:
+Bao-Dur
+</t>
+        </is>
+      </c>
+      <c r="BU3" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve">(10H-12H) Trilla Suduri:
 Obi-Wan Kenobi
-</t>
-        </is>
-      </c>
-      <c r="BQ3" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(10H-12H) Trilla Suduri:
-Dagobah Snake
-</t>
-        </is>
-      </c>
-      <c r="BR3" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(10H-12H) Trilla Suduri:
-Cad Bane
-(10H-12H) Trilla Suduri:
-K-2SO
-</t>
-        </is>
-      </c>
-      <c r="BS3" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(10H-12H) Trilla Suduri:
-C-3PO
-</t>
-        </is>
-      </c>
-      <c r="BT3" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(10H-12H) Trilla Suduri:
-Darth Maul
-(10H-12H) Trilla Suduri:
-Bao-Dur
-</t>
-        </is>
-      </c>
-      <c r="BU3" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(10H-12H) Trilla Suduri:
-Rancor
 </t>
         </is>
       </c>
@@ -18383,9 +18357,7 @@
       </c>
       <c r="BW3" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">(10H-12H) 4-LOM:
-Asajj Ventress
-(10H-12H) Plo Koon:
+          <t xml:space="preserve">(10H-12H) Plo Koon:
 Cad Bane
 (10H-12H) Trilla Suduri:
 Battle Droid
@@ -18402,18 +18374,14 @@
       </c>
       <c r="BZ3" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">(10H-12H) 4-LOM:
-Obi-Wan Kenobi
-(10H-12H) Plo Koon:
+          <t xml:space="preserve">(10H-12H) Plo Koon:
 Bao-Dur
 </t>
         </is>
       </c>
       <c r="CA3" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">(10H-12H) Plo Koon:
-Anakin Skywalker
-(10H-12H) Trilla Suduri:
+          <t xml:space="preserve">(10H-12H) Trilla Suduri:
 Greedo
 </t>
         </is>
@@ -18447,7 +18415,13 @@
 </t>
         </is>
       </c>
-      <c r="CG3" s="0" t="inlineStr"/>
+      <c r="CG3" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(10H-12H) Trilla Suduri:
+Battle Droid
+</t>
+        </is>
+      </c>
       <c r="CH3" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve">(10H-12H) Trilla Suduri:
@@ -18462,19 +18436,11 @@
 </t>
         </is>
       </c>
-      <c r="CJ3" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(10H-12H) Trilla Suduri:
-Bossk
-</t>
-        </is>
-      </c>
+      <c r="CJ3" s="0" t="inlineStr"/>
       <c r="CK3" s="0" t="inlineStr"/>
       <c r="CL3" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve">(10H-12H) Trilla Suduri:
-Battle Droid
-(10H-12H) Trilla Suduri:
 The Mandalorian
 </t>
         </is>
@@ -18522,13 +18488,7 @@
 </t>
         </is>
       </c>
-      <c r="CR3" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(10H-12H) Trilla Suduri:
-Count Dooku
-</t>
-        </is>
-      </c>
+      <c r="CR3" s="0" t="inlineStr"/>
       <c r="CS3" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve">(10H-12H) Trilla Suduri:
@@ -18536,17 +18496,13 @@
 </t>
         </is>
       </c>
-      <c r="CT3" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(10H-12H) Trilla Suduri:
-Bossk
-</t>
-        </is>
-      </c>
+      <c r="CT3" s="0" t="inlineStr"/>
       <c r="CU3" s="0" t="inlineStr"/>
       <c r="CV3" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve">(10H-12H) Trilla Suduri:
+Battle Droid
+(10H-12H) Trilla Suduri:
 Zaalbar
 </t>
         </is>
@@ -18565,13 +18521,7 @@
 </t>
         </is>
       </c>
-      <c r="CY3" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(10H-12H) Trilla Suduri:
-Bossk
-</t>
-        </is>
-      </c>
+      <c r="CY3" s="0" t="inlineStr"/>
       <c r="CZ3" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve">(10H-12H) 4-LOM:
@@ -18586,8 +18536,6 @@
       <c r="DA3" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve">(10H-12H) Trilla Suduri:
-The Mandalorian
-(10H-12H) Trilla Suduri:
 Hondo Ohnaka
 </t>
         </is>
@@ -18602,6 +18550,8 @@
       <c r="DC3" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve">(10H-12H) Trilla Suduri:
+Darth Maul
+(10H-12H) Trilla Suduri:
 Hondo Ohnaka
 </t>
         </is>
@@ -18627,75 +18577,89 @@
       <c r="DH3" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve">(10H-12H) Trilla Suduri:
+Darth Maul
+(10H-12H) Trilla Suduri:
 Hondo Ohnaka
 </t>
         </is>
       </c>
       <c r="DI3" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(10H-12H) 4-LOM:
+Bossk
+(10H-12H) Trilla Suduri:
+K-2SO
+</t>
+        </is>
+      </c>
+      <c r="DJ3" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(10H-12H) Trilla Suduri:
+Nien Nunb
+</t>
+        </is>
+      </c>
+      <c r="DK3" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(10H-12H) Trilla Suduri:
+Gar Saxon
+</t>
+        </is>
+      </c>
+      <c r="DL3" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(10H-12H) Trilla Suduri:
+Sy Snootles
+</t>
+        </is>
+      </c>
+      <c r="DM3" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(10H-12H) Trilla Suduri:
+Darth Maul
+</t>
+        </is>
+      </c>
+      <c r="DN3" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(10H-12H) Plo Koon:
+Kanan Jarrus
+</t>
+        </is>
+      </c>
+      <c r="DO3" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(10H-12H) 4-LOM:
+Cassian Andor
+</t>
+        </is>
+      </c>
+      <c r="DP3" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(10H-12H) Trilla Suduri:
+Taron Malicos
+</t>
+        </is>
+      </c>
+      <c r="DQ3" s="0" t="inlineStr"/>
+      <c r="DR3" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(10H-12H) 4-LOM:
+C-3PO
+</t>
+        </is>
+      </c>
+      <c r="DS3" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve">(10H-12H) Trilla Suduri:
 K-2SO
 </t>
         </is>
       </c>
-      <c r="DJ3" s="0" t="inlineStr">
+      <c r="DT3" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve">(10H-12H) 4-LOM:
 Darth Revan
-(10H-12H) Trilla Suduri:
-Nien Nunb
-</t>
-        </is>
-      </c>
-      <c r="DK3" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(10H-12H) Trilla Suduri:
-Gar Saxon
-</t>
-        </is>
-      </c>
-      <c r="DL3" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(10H-12H) Trilla Suduri:
-Sy Snootles
-</t>
-        </is>
-      </c>
-      <c r="DM3" s="0" t="inlineStr"/>
-      <c r="DN3" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(10H-12H) Plo Koon:
-Kanan Jarrus
-</t>
-        </is>
-      </c>
-      <c r="DO3" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(10H-12H) 4-LOM:
-Cassian Andor
-</t>
-        </is>
-      </c>
-      <c r="DP3" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(10H-12H) Trilla Suduri:
-Taron Malicos
-</t>
-        </is>
-      </c>
-      <c r="DQ3" s="0" t="inlineStr"/>
-      <c r="DR3" s="0" t="inlineStr"/>
-      <c r="DS3" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(10H-12H) Trilla Suduri:
-K-2SO
-</t>
-        </is>
-      </c>
-      <c r="DT3" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(10H-12H) 4-LOM:
-Darth Revan
 </t>
         </is>
       </c>
@@ -18703,6 +18667,8 @@
         <is>
           <t xml:space="preserve">(10H-12H) Plo Koon:
 Battle Droid
+(10H-12H) Trilla Suduri:
+Gar Saxon
 </t>
         </is>
       </c>
@@ -18713,13 +18679,7 @@
 </t>
         </is>
       </c>
-      <c r="DW3" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(10H-12H) Trilla Suduri:
-Darth Maul
-</t>
-        </is>
-      </c>
+      <c r="DW3" s="0" t="inlineStr"/>
       <c r="DX3" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve">(10H-12H) Plo Koon:
@@ -18744,27 +18704,13 @@
       <c r="EG3" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve">(10H-12H) Trilla Suduri:
-Darth Maul
-(10H-12H) Trilla Suduri:
 Wedge Antilles
 </t>
         </is>
       </c>
-      <c r="EH3" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(10H-12H) Trilla Suduri:
-Krayt Dragon
-</t>
-        </is>
-      </c>
+      <c r="EH3" s="0" t="inlineStr"/>
       <c r="EI3" s="0" t="inlineStr"/>
-      <c r="EJ3" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(10H-12H) Trilla Suduri:
-Gar Saxon
-</t>
-        </is>
-      </c>
+      <c r="EJ3" s="0" t="inlineStr"/>
       <c r="EK3" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve">(10H-12H) Trilla Suduri:
@@ -18777,7 +18723,13 @@
       <c r="EL3" s="0" t="inlineStr"/>
       <c r="EM3" s="0" t="inlineStr"/>
       <c r="EN3" s="0" t="inlineStr"/>
-      <c r="EO3" s="0" t="inlineStr"/>
+      <c r="EO3" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(10H-12H) Trilla Suduri:
+Gar Saxon
+</t>
+        </is>
+      </c>
       <c r="EP3" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve">(10H-12H) Trilla Suduri:
@@ -18817,14 +18769,14 @@
         </is>
       </c>
       <c r="EV3" s="0" t="inlineStr"/>
-      <c r="EW3" s="0" t="inlineStr"/>
-      <c r="EX3" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(10H-12H) 4-LOM:
-Reek
-</t>
-        </is>
-      </c>
+      <c r="EW3" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(10H-12H) Trilla Suduri:
+Krayt Dragon
+</t>
+        </is>
+      </c>
+      <c r="EX3" s="0" t="inlineStr"/>
       <c r="EY3" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve">(10H-12H) Plo Koon:
@@ -18838,8 +18790,6 @@
         <is>
           <t xml:space="preserve">(10H-12H) 4-LOM:
 Droideka
-(10H-12H) Plo Koon:
-Raddus
 </t>
         </is>
       </c>
@@ -18855,7 +18805,7 @@
           <t xml:space="preserve">(10H-12H) 4-LOM:
 Wedge Antilles
 (10H-12H) 4-LOM:
-Rancor
+Clone Trooper
 (10H-12H) Plo Koon:
 Bib Fortuna
 </t>
@@ -19083,6 +19033,8 @@
         <is>
           <t xml:space="preserve">(14H-16H) Plo Koon:
 Cad Bane
+(14H-16H) Plo Koon:
+Rancor
 </t>
         </is>
       </c>
@@ -19126,9 +19078,9 @@
       <c r="AJ4" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve">(14H-16H) Trilla Suduri:
-Cad Bane
+Asajj Ventress
 (14H-16H) Trilla Suduri:
-Asajj Ventress
+Clone Trooper
 </t>
         </is>
       </c>
@@ -19150,8 +19102,6 @@
         <is>
           <t xml:space="preserve">(14H-16H) Trilla Suduri:
 Bossk
-(14H-16H) Trilla Suduri:
-Maz Kanata
 </t>
         </is>
       </c>
@@ -19165,7 +19115,7 @@
       <c r="AO4" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve">(14H-16H) Trilla Suduri:
-Cad Bane
+Grogu
 </t>
         </is>
       </c>
@@ -19200,7 +19150,7 @@
       <c r="AT4" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve">(14H-16H) Trilla Suduri:
-Cad Bane
+Asajj Ventress
 (14H-16H) Trilla Suduri:
 Tusken Raider
 </t>
@@ -19217,18 +19167,10 @@
         <is>
           <t xml:space="preserve">(14H-16H) Trilla Suduri:
 Greedo
-(14H-16H) Trilla Suduri:
-Rancor
-</t>
-        </is>
-      </c>
-      <c r="AW4" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(14H-16H) Trilla Suduri:
-Anakin Skywalker
-</t>
-        </is>
-      </c>
+</t>
+        </is>
+      </c>
+      <c r="AW4" s="0" t="inlineStr"/>
       <c r="AX4" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve">(14H-16H) Trilla Suduri:
@@ -19239,6 +19181,8 @@
       <c r="AY4" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve">(14H-16H) Trilla Suduri:
+Asajj Ventress
+(14H-16H) Trilla Suduri:
 Jannah
 </t>
         </is>
@@ -19257,20 +19201,24 @@
 </t>
         </is>
       </c>
-      <c r="BB4" s="0" t="inlineStr"/>
+      <c r="BB4" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(14H-16H) Trilla Suduri:
+Maz Kanata
+</t>
+        </is>
+      </c>
       <c r="BC4" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve">(14H-16H) Trilla Suduri:
 Droideka
-(14H-16H) Trilla Suduri:
-Grogu
 </t>
         </is>
       </c>
       <c r="BD4" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve">(14H-16H) Trilla Suduri:
-Cad Bane
+Asajj Ventress
 (14H-16H) Trilla Suduri:
 Asajj Ventress
 </t>
@@ -19309,25 +19257,21 @@
 (14H-16H) Plo Koon:
 Battle Droid
 (14H-16H) Trilla Suduri:
-Cad Bane
+Asajj Ventress
 (14H-16H) Trilla Suduri:
-Asajj Ventress
-</t>
-        </is>
-      </c>
-      <c r="BJ4" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(14H-16H) Trilla Suduri:
-Darth Maul
-</t>
-        </is>
-      </c>
+Clone Trooper
+</t>
+        </is>
+      </c>
+      <c r="BJ4" s="0" t="inlineStr"/>
       <c r="BK4" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve">(14H-16H) Plo Koon:
 Eopie
 (14H-16H) Trilla Suduri:
 Greedo
+(14H-16H) Trilla Suduri:
+Clone Trooper
 </t>
         </is>
       </c>
@@ -19336,37 +19280,39 @@
           <t xml:space="preserve">(14H-16H) 4-LOM:
 Cassian Andor
 (14H-16H) Trilla Suduri:
+Bossk
+</t>
+        </is>
+      </c>
+      <c r="BM4" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(14H-16H) Trilla Suduri:
+Grogu
+</t>
+        </is>
+      </c>
+      <c r="BN4" s="0" t="inlineStr"/>
+      <c r="BO4" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(14H-16H) Trilla Suduri:
+Darth Maul
+(14H-16H) Trilla Suduri:
+Raddus
+</t>
+        </is>
+      </c>
+      <c r="BP4" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(14H-16H) Trilla Suduri:
+Clone Trooper
+</t>
+        </is>
+      </c>
+      <c r="BQ4" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(14H-16H) Trilla Suduri:
 Anakin Skywalker
 (14H-16H) Trilla Suduri:
-Bossk
-</t>
-        </is>
-      </c>
-      <c r="BM4" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(14H-16H) Trilla Suduri:
-Battle Droid
-</t>
-        </is>
-      </c>
-      <c r="BN4" s="0" t="inlineStr"/>
-      <c r="BO4" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(14H-16H) Trilla Suduri:
-Raddus
-</t>
-        </is>
-      </c>
-      <c r="BP4" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(14H-16H) Trilla Suduri:
-Rancor
-</t>
-        </is>
-      </c>
-      <c r="BQ4" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(14H-16H) Trilla Suduri:
 Bossk
 </t>
         </is>
@@ -19390,16 +19336,18 @@
       <c r="BT4" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve">(14H-16H) Trilla Suduri:
+Darth Maul
+(14H-16H) Trilla Suduri:
 Raddus
 </t>
         </is>
       </c>
       <c r="BU4" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">(14H-16H) Trilla Suduri:
+          <t xml:space="preserve">(14H-16H) 4-LOM:
+Clone Trooper
+(14H-16H) Trilla Suduri:
 Baze Malbus
-(14H-16H) Trilla Suduri:
-Obi-Wan Kenobi
 </t>
         </is>
       </c>
@@ -19407,6 +19355,8 @@
         <is>
           <t xml:space="preserve">(14H-16H) Plo Koon:
 Tusken Raider
+(14H-16H) Plo Koon:
+Maz Kanata
 (14H-16H) Trilla Suduri:
 Zaalbar
 </t>
@@ -19429,8 +19379,6 @@
         <is>
           <t xml:space="preserve">(14H-16H) Trilla Suduri:
 C-3PO
-(14H-16H) Trilla Suduri:
-Count Dooku
 </t>
         </is>
       </c>
@@ -19443,9 +19391,7 @@
       </c>
       <c r="BZ4" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">(14H-16H) 4-LOM:
-Rancor
-(14H-16H) Plo Koon:
+          <t xml:space="preserve">(14H-16H) Plo Koon:
 Darth Maul
 </t>
         </is>
@@ -19453,6 +19399,8 @@
       <c r="CA4" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve">(14H-16H) Trilla Suduri:
+Bossk
+(14H-16H) Trilla Suduri:
 The Mandalorian
 </t>
         </is>
@@ -19492,8 +19440,6 @@
         <is>
           <t xml:space="preserve">(14H-16H) Trilla Suduri:
 Battle Droid
-(14H-16H) Trilla Suduri:
-Battle Droid
 </t>
         </is>
       </c>
@@ -19507,7 +19453,7 @@
       </c>
       <c r="CJ4" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">(14H-16H) 4-LOM:
+          <t xml:space="preserve">(14H-16H) Plo Koon:
 Rancor
 (14H-16H) Trilla Suduri:
 Eopie
@@ -19515,12 +19461,16 @@
         </is>
       </c>
       <c r="CK4" s="0" t="inlineStr"/>
-      <c r="CL4" s="0" t="inlineStr"/>
+      <c r="CL4" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(14H-16H) Trilla Suduri:
+Battle Droid
+</t>
+        </is>
+      </c>
       <c r="CM4" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">(14H-16H) Plo Koon:
-Clone Trooper
-(14H-16H) Trilla Suduri:
+          <t xml:space="preserve">(14H-16H) Trilla Suduri:
 Nien Nunb
 </t>
         </is>
@@ -19557,8 +19507,6 @@
           <t xml:space="preserve">(14H-16H) Plo Koon:
 Darth Maul
 (14H-16H) Trilla Suduri:
-Battle Droid
-(14H-16H) Trilla Suduri:
 Zaalbar
 </t>
         </is>
@@ -19582,6 +19530,8 @@
       <c r="CT4" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve">(14H-16H) Trilla Suduri:
+Bossk
+(14H-16H) Trilla Suduri:
 Dengar
 </t>
         </is>
@@ -19596,8 +19546,6 @@
       <c r="CV4" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve">(14H-16H) Trilla Suduri:
-Battle Droid
-(14H-16H) Trilla Suduri:
 The Mandalorian
 </t>
         </is>
@@ -19620,6 +19568,8 @@
         <is>
           <t xml:space="preserve">(14H-16H) 4-LOM:
 Wedge Antilles
+(14H-16H) Trilla Suduri:
+Eopie
 </t>
         </is>
       </c>
@@ -19630,7 +19580,13 @@
 </t>
         </is>
       </c>
-      <c r="DA4" s="0" t="inlineStr"/>
+      <c r="DA4" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(14H-16H) 4-LOM:
+Battle Droid
+</t>
+        </is>
+      </c>
       <c r="DB4" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve">(14H-16H) Trilla Suduri:
@@ -19650,7 +19606,7 @@
       <c r="DD4" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve">(14H-16H) Trilla Suduri:
-Bossk
+Eopie
 </t>
         </is>
       </c>
@@ -19682,16 +19638,16 @@
       </c>
       <c r="DI4" s="0" t="inlineStr">
         <is>
+          <t xml:space="preserve">(14H-16H) Plo Koon:
+Eopie
+</t>
+        </is>
+      </c>
+      <c r="DJ4" s="0" t="inlineStr">
+        <is>
           <t xml:space="preserve">(14H-16H) 4-LOM:
-Bossk
-(14H-16H) Plo Koon:
-Eopie
-</t>
-        </is>
-      </c>
-      <c r="DJ4" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(14H-16H) 4-LOM:
+Darth Revan
+(14H-16H) 4-LOM:
 Zaalbar
 (14H-16H) Trilla Suduri:
 Cassian Andor
@@ -19714,8 +19670,6 @@
         <is>
           <t xml:space="preserve">(14H-16H) 4-LOM:
 Hondo Ohnaka
-(14H-16H) Trilla Suduri:
-Darth Maul
 </t>
         </is>
       </c>
@@ -19744,8 +19698,6 @@
           <t xml:space="preserve">(14H-16H) 4-LOM:
 Nien Nunb
 (14H-16H) Trilla Suduri:
-Darth Maul
-(14H-16H) Trilla Suduri:
 Wedge Antilles
 </t>
         </is>
@@ -19767,11 +19719,19 @@
 </t>
         </is>
       </c>
-      <c r="DV4" s="0" t="inlineStr"/>
+      <c r="DV4" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(14H-16H) Trilla Suduri:
+Raddus
+</t>
+        </is>
+      </c>
       <c r="DW4" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve">(14H-16H) 4-LOM:
 Dengar
+(14H-16H) Trilla Suduri:
+Darth Maul
 (14H-16H) Trilla Suduri:
 Wedge Antilles
 </t>
@@ -19796,6 +19756,8 @@
       <c r="DZ4" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve">(14H-16H) Trilla Suduri:
+Gar Saxon
+(14H-16H) Trilla Suduri:
 Taron Malicos
 </t>
         </is>
@@ -19824,7 +19786,13 @@
 </t>
         </is>
       </c>
-      <c r="EG4" s="0" t="inlineStr"/>
+      <c r="EG4" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(14H-16H) Trilla Suduri:
+Darth Maul
+</t>
+        </is>
+      </c>
       <c r="EH4" s="0" t="inlineStr"/>
       <c r="EI4" s="0" t="inlineStr">
         <is>
@@ -19843,13 +19811,7 @@
       </c>
       <c r="EL4" s="0" t="inlineStr"/>
       <c r="EM4" s="0" t="inlineStr"/>
-      <c r="EN4" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(14H-16H) Trilla Suduri:
-Reek
-</t>
-        </is>
-      </c>
+      <c r="EN4" s="0" t="inlineStr"/>
       <c r="EO4" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve">(14H-16H) Trilla Suduri:
@@ -19861,23 +19823,17 @@
         <is>
           <t xml:space="preserve">(14H-16H) Trilla Suduri:
 Sy Snootles
+(14H-16H) Trilla Suduri:
+Raddus
 </t>
         </is>
       </c>
       <c r="EQ4" s="0" t="inlineStr"/>
-      <c r="ER4" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(14H-16H) Trilla Suduri:
-Krayt Dragon
-</t>
-        </is>
-      </c>
+      <c r="ER4" s="0" t="inlineStr"/>
       <c r="ES4" s="0" t="inlineStr"/>
       <c r="ET4" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve">(14H-16H) Trilla Suduri:
-Gar Saxon
-(14H-16H) Trilla Suduri:
 Taron Malicos
 </t>
         </is>
@@ -19894,15 +19850,13 @@
         <is>
           <t xml:space="preserve">(14H-16H) Plo Koon:
 K-2SO
-(14H-16H) Trilla Suduri:
-Krayt Dragon
 </t>
         </is>
       </c>
       <c r="EX4" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve">(14H-16H) Plo Koon:
-Anakin Skywalker
+Rancor
 </t>
         </is>
       </c>
@@ -19920,7 +19874,7 @@
           <t xml:space="preserve">(14H-16H) 4-LOM:
 Dagobah Snake
 (14H-16H) Plo Koon:
-Clone Trooper
+Raddus
 </t>
         </is>
       </c>
@@ -19968,13 +19922,7 @@
 </t>
         </is>
       </c>
-      <c r="FK4" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(14H-16H) 4-LOM:
-Darth Maul
-</t>
-        </is>
-      </c>
+      <c r="FK4" s="0" t="inlineStr"/>
       <c r="FL4" s="0" t="inlineStr"/>
       <c r="FM4" s="0" t="inlineStr">
         <is>
@@ -20156,6 +20104,8 @@
         <is>
           <t xml:space="preserve">(16H-18H) 4-LOM:
 Baze Malbus
+(16H-18H) 4-LOM:
+Clone Trooper
 (16H-18H) Plo Koon:
 Maz Kanata
 </t>
@@ -20164,8 +20114,6 @@
       <c r="AC5" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve">(16H-18H) Plo Koon:
-Anakin Skywalker
-(16H-18H) Plo Koon:
 Bao-Dur
 </t>
         </is>
@@ -20219,6 +20167,8 @@
         <is>
           <t xml:space="preserve">(16H-18H) Trilla Suduri:
 Tusken Raider
+(16H-18H) Trilla Suduri:
+Maz Kanata
 </t>
         </is>
       </c>
@@ -20235,13 +20185,15 @@
         <is>
           <t xml:space="preserve">(16H-18H) Trilla Suduri:
 Baze Malbus
+(16H-18H) Trilla Suduri:
+Rancor
 </t>
         </is>
       </c>
       <c r="AR5" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve">(16H-18H) Trilla Suduri:
-Maz Kanata
+Anakin Skywalker
 </t>
         </is>
       </c>
@@ -20249,9 +20201,9 @@
       <c r="AT5" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve">(16H-18H) Trilla Suduri:
-Asajj Ventress
+Jannah
 (16H-18H) Trilla Suduri:
-Jannah
+Grogu
 </t>
         </is>
       </c>
@@ -20266,6 +20218,8 @@
         <is>
           <t xml:space="preserve">(16H-18H) Trilla Suduri:
 Obi-Wan Kenobi
+(16H-18H) Trilla Suduri:
+Rancor
 </t>
         </is>
       </c>
@@ -20287,19 +20241,25 @@
         <is>
           <t xml:space="preserve">(16H-18H) Trilla Suduri:
 Asajj Ventress
+</t>
+        </is>
+      </c>
+      <c r="AZ5" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(16H-18H) Trilla Suduri:
+Darth Maul
 (16H-18H) Trilla Suduri:
-Asajj Ventress
-</t>
-        </is>
-      </c>
-      <c r="AZ5" s="0" t="inlineStr">
+Bao-Dur
+</t>
+        </is>
+      </c>
+      <c r="BA5" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve">(16H-18H) Trilla Suduri:
-Bao-Dur
-</t>
-        </is>
-      </c>
-      <c r="BA5" s="0" t="inlineStr"/>
+Rancor
+</t>
+        </is>
+      </c>
       <c r="BB5" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve">(16H-18H) Trilla Suduri:
@@ -20307,7 +20267,13 @@
 </t>
         </is>
       </c>
-      <c r="BC5" s="0" t="inlineStr"/>
+      <c r="BC5" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(16H-18H) Trilla Suduri:
+Cad Bane
+</t>
+        </is>
+      </c>
       <c r="BD5" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve">(16H-18H) Trilla Suduri:
@@ -20322,17 +20288,15 @@
         <is>
           <t xml:space="preserve">(16H-18H) Trilla Suduri:
 Greedo
+</t>
+        </is>
+      </c>
+      <c r="BG5" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(16H-18H) Trilla Suduri:
+Anakin Skywalker
 (16H-18H) Trilla Suduri:
-Rancor
-</t>
-        </is>
-      </c>
-      <c r="BG5" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(16H-18H) Trilla Suduri:
 Bossk
-(16H-18H) Trilla Suduri:
-Maz Kanata
 </t>
         </is>
       </c>
@@ -20340,17 +20304,15 @@
         <is>
           <t xml:space="preserve">(16H-18H) Trilla Suduri:
 K-2SO
+</t>
+        </is>
+      </c>
+      <c r="BI5" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(16H-18H) Trilla Suduri:
+Jannah
 (16H-18H) Trilla Suduri:
 Grogu
-</t>
-        </is>
-      </c>
-      <c r="BI5" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(16H-18H) Trilla Suduri:
-Asajj Ventress
-(16H-18H) Trilla Suduri:
-Jannah
 </t>
         </is>
       </c>
@@ -20367,8 +20329,6 @@
 Nien Nunb
 (16H-18H) Trilla Suduri:
 Baze Malbus
-(16H-18H) Trilla Suduri:
-Obi-Wan Kenobi
 </t>
         </is>
       </c>
@@ -20386,7 +20346,7 @@
       <c r="BM5" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve">(16H-18H) Trilla Suduri:
-Asajj Ventress
+Cad Bane
 (16H-18H) Trilla Suduri:
 K-2SO
 </t>
@@ -20400,13 +20360,17 @@
 </t>
         </is>
       </c>
-      <c r="BP5" s="0" t="inlineStr"/>
+      <c r="BP5" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(16H-18H) Trilla Suduri:
+Obi-Wan Kenobi
+</t>
+        </is>
+      </c>
       <c r="BQ5" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve">(16H-18H) 4-LOM:
 Bossk
-(16H-18H) Trilla Suduri:
-Anakin Skywalker
 </t>
         </is>
       </c>
@@ -20427,8 +20391,8 @@
       </c>
       <c r="BU5" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">(16H-18H) Plo Koon:
-Clone Trooper
+          <t xml:space="preserve">(16H-18H) Trilla Suduri:
+Rancor
 </t>
         </is>
       </c>
@@ -20436,8 +20400,6 @@
         <is>
           <t xml:space="preserve">(16H-18H) 4-LOM:
 Nien Nunb
-(16H-18H) Plo Koon:
-Maz Kanata
 (16H-18H) Trilla Suduri:
 The Mandalorian
 </t>
@@ -20445,21 +20407,27 @@
       </c>
       <c r="BW5" s="0" t="inlineStr">
         <is>
+          <t xml:space="preserve">(16H-18H) 4-LOM:
+K-2SO
+(16H-18H) Trilla Suduri:
+Battle Droid
+</t>
+        </is>
+      </c>
+      <c r="BX5" s="0" t="inlineStr">
+        <is>
           <t xml:space="preserve">(16H-18H) Trilla Suduri:
-Battle Droid
-</t>
-        </is>
-      </c>
-      <c r="BX5" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(16H-18H) Trilla Suduri:
+Count Dooku
+(16H-18H) Trilla Suduri:
 Nien Nunb
 </t>
         </is>
       </c>
       <c r="BY5" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">(16H-18H) Trilla Suduri:
+          <t xml:space="preserve">(16H-18H) 4-LOM:
+Anakin Skywalker
+(16H-18H) Trilla Suduri:
 Kanan Jarrus
 </t>
         </is>
@@ -20479,6 +20447,8 @@
         <is>
           <t xml:space="preserve">(16H-18H) Plo Koon:
 Jannah
+(16H-18H) Plo Koon:
+Rancor
 (16H-18H) Trilla Suduri:
 Zaalbar
 </t>
@@ -20488,6 +20458,8 @@
         <is>
           <t xml:space="preserve">(16H-18H) Trilla Suduri:
 Eopie
+(16H-18H) Trilla Suduri:
+Battle Droid
 </t>
         </is>
       </c>
@@ -20503,6 +20475,8 @@
       <c r="CF5" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve">(16H-18H) Trilla Suduri:
+Bossk
+(16H-18H) Trilla Suduri:
 The Mandalorian
 </t>
         </is>
@@ -20528,7 +20502,13 @@
 </t>
         </is>
       </c>
-      <c r="CJ5" s="0" t="inlineStr"/>
+      <c r="CJ5" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(16H-18H) Trilla Suduri:
+Bossk
+</t>
+        </is>
+      </c>
       <c r="CK5" s="0" t="inlineStr"/>
       <c r="CL5" s="0" t="inlineStr">
         <is>
@@ -20537,7 +20517,13 @@
 </t>
         </is>
       </c>
-      <c r="CM5" s="0" t="inlineStr"/>
+      <c r="CM5" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(16H-18H) 4-LOM:
+Clone Trooper
+</t>
+        </is>
+      </c>
       <c r="CN5" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve">(16H-18H) 4-LOM:
@@ -20560,7 +20546,9 @@
       </c>
       <c r="CP5" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">(16H-18H) Plo Koon:
+          <t xml:space="preserve">(16H-18H) 4-LOM:
+Anakin Skywalker
+(16H-18H) Plo Koon:
 Jannah
 (16H-18H) Trilla Suduri:
 Nien Nunb
@@ -20599,9 +20587,7 @@
       </c>
       <c r="CU5" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">(16H-18H) Plo Koon:
-Anakin Skywalker
-(16H-18H) Trilla Suduri:
+          <t xml:space="preserve">(16H-18H) Trilla Suduri:
 Nien Nunb
 </t>
         </is>
@@ -20630,8 +20616,6 @@
           <t xml:space="preserve">(16H-18H) Plo Koon:
 Gar Saxon
 (16H-18H) Trilla Suduri:
-Eopie
-(16H-18H) Trilla Suduri:
 Dengar
 </t>
         </is>
@@ -20645,10 +20629,10 @@
       </c>
       <c r="DA5" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">(16H-18H) 4-LOM:
-Battle Droid
-(16H-18H) Plo Koon:
+          <t xml:space="preserve">(16H-18H) Plo Koon:
 Taron Malicos
+(16H-18H) Trilla Suduri:
+The Mandalorian
 </t>
         </is>
       </c>
@@ -20657,6 +20641,8 @@
       <c r="DD5" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve">(16H-18H) Trilla Suduri:
+Bossk
+(16H-18H) Trilla Suduri:
 Dengar
 </t>
         </is>
@@ -20674,8 +20660,6 @@
         <is>
           <t xml:space="preserve">(16H-18H) Trilla Suduri:
 Kanan Jarrus
-(16H-18H) Trilla Suduri:
-Darth Maul
 </t>
         </is>
       </c>
@@ -20738,13 +20722,7 @@
 </t>
         </is>
       </c>
-      <c r="DR5" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(16H-18H) 4-LOM:
-C-3PO
-</t>
-        </is>
-      </c>
+      <c r="DR5" s="0" t="inlineStr"/>
       <c r="DS5" s="0" t="inlineStr"/>
       <c r="DT5" s="0" t="inlineStr">
         <is>
@@ -20753,20 +20731,8 @@
 </t>
         </is>
       </c>
-      <c r="DU5" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(16H-18H) Trilla Suduri:
-Gar Saxon
-</t>
-        </is>
-      </c>
-      <c r="DV5" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(16H-18H) Trilla Suduri:
-Raddus
-</t>
-        </is>
-      </c>
+      <c r="DU5" s="0" t="inlineStr"/>
+      <c r="DV5" s="0" t="inlineStr"/>
       <c r="DW5" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve">(16H-18H) 4-LOM:
@@ -20804,7 +20770,13 @@
 </t>
         </is>
       </c>
-      <c r="EB5" s="0" t="inlineStr"/>
+      <c r="EB5" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(16H-18H) Trilla Suduri:
+Darth Maul
+</t>
+        </is>
+      </c>
       <c r="EC5" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve">(16H-18H) 4-LOM:
@@ -20817,8 +20789,6 @@
         <is>
           <t xml:space="preserve">(16H-18H) Trilla Suduri:
 Taron Malicos
-(16H-18H) Trilla Suduri:
-Gar Saxon
 </t>
         </is>
       </c>
@@ -20842,29 +20812,59 @@
         </is>
       </c>
       <c r="EK5" s="0" t="inlineStr"/>
-      <c r="EL5" s="0" t="inlineStr"/>
+      <c r="EL5" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(16H-18H) Trilla Suduri:
+Darth Maul
+</t>
+        </is>
+      </c>
       <c r="EM5" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve">(16H-18H) Trilla Suduri:
+Krayt Dragon
+(16H-18H) Trilla Suduri:
 K-2SO
 </t>
         </is>
       </c>
-      <c r="EN5" s="0" t="inlineStr"/>
+      <c r="EN5" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(16H-18H) Trilla Suduri:
+Reek
+</t>
+        </is>
+      </c>
       <c r="EO5" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(16H-18H) Trilla Suduri:
+Taron Malicos
+</t>
+        </is>
+      </c>
+      <c r="EP5" s="0" t="inlineStr"/>
+      <c r="EQ5" s="0" t="inlineStr"/>
+      <c r="ER5" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(16H-18H) Trilla Suduri:
+Krayt Dragon
+</t>
+        </is>
+      </c>
+      <c r="ES5" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(16H-18H) Trilla Suduri:
+Reek
+</t>
+        </is>
+      </c>
+      <c r="ET5" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve">(16H-18H) Trilla Suduri:
 Gar Saxon
-(16H-18H) Trilla Suduri:
-Taron Malicos
-</t>
-        </is>
-      </c>
-      <c r="EP5" s="0" t="inlineStr"/>
-      <c r="EQ5" s="0" t="inlineStr"/>
-      <c r="ER5" s="0" t="inlineStr"/>
-      <c r="ES5" s="0" t="inlineStr"/>
-      <c r="ET5" s="0" t="inlineStr"/>
+</t>
+        </is>
+      </c>
       <c r="EU5" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve">(16H-18H) Trilla Suduri:
@@ -20874,7 +20874,13 @@
       </c>
       <c r="EV5" s="0" t="inlineStr"/>
       <c r="EW5" s="0" t="inlineStr"/>
-      <c r="EX5" s="0" t="inlineStr"/>
+      <c r="EX5" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(16H-18H) 4-LOM:
+Reek
+</t>
+        </is>
+      </c>
       <c r="EY5" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve">(16H-18H) Plo Koon:
@@ -20925,7 +20931,13 @@
       <c r="FH5" s="0" t="inlineStr"/>
       <c r="FI5" s="0" t="inlineStr"/>
       <c r="FJ5" s="0" t="inlineStr"/>
-      <c r="FK5" s="0" t="inlineStr"/>
+      <c r="FK5" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(16H-18H) 4-LOM:
+Darth Maul
+</t>
+        </is>
+      </c>
       <c r="FL5" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve">(16H-18H) 4-LOM:
@@ -21419,27 +21431,27 @@
       </c>
       <c r="H3" s="0" t="inlineStr">
         <is>
-          <t>01/03/2024 16H-18H</t>
+          <t>01/03/2024 14H-16H</t>
         </is>
       </c>
       <c r="I3" s="0" t="inlineStr">
         <is>
-          <t>08/03/2024 16H-18H</t>
+          <t>08/03/2024 14H-16H</t>
         </is>
       </c>
       <c r="J3" s="0" t="inlineStr">
         <is>
-          <t>15/03/2024 10H-12H</t>
+          <t>15/03/2024 14H-16H</t>
         </is>
       </c>
       <c r="K3" s="0" t="inlineStr">
         <is>
-          <t>22/03/2024 16H-18H</t>
+          <t>22/03/2024 8H-10H</t>
         </is>
       </c>
       <c r="L3" s="0" t="inlineStr">
         <is>
-          <t>28/03/2024 16H-18H</t>
+          <t>28/03/2024 10H-12H</t>
         </is>
       </c>
       <c r="M3" s="0" t="inlineStr">
@@ -21449,7 +21461,7 @@
       </c>
       <c r="N3" s="0" t="inlineStr">
         <is>
-          <t>11/04/2024 10H-12H</t>
+          <t>11/04/2024 8H-10H</t>
         </is>
       </c>
       <c r="O3" s="0" t="inlineStr">
@@ -21483,42 +21495,42 @@
       </c>
       <c r="F4" s="0" t="inlineStr">
         <is>
-          <t>16/02/2024 14H-16H</t>
+          <t>15/02/2024 8H-10H</t>
         </is>
       </c>
       <c r="G4" s="0" t="inlineStr">
         <is>
-          <t>23/02/2024 14H-16H</t>
+          <t>22/02/2024 10H-12H</t>
         </is>
       </c>
       <c r="H4" s="0" t="inlineStr">
         <is>
-          <t>01/03/2024 14H-16H</t>
+          <t>29/02/2024 10H-12H</t>
         </is>
       </c>
       <c r="I4" s="0" t="inlineStr">
         <is>
-          <t>08/03/2024 8H-10H</t>
+          <t>07/03/2024 8H-10H</t>
         </is>
       </c>
       <c r="J4" s="0" t="inlineStr">
         <is>
-          <t>15/03/2024 14H-16H</t>
+          <t>14/03/2024 16H-18H</t>
         </is>
       </c>
       <c r="K4" s="0" t="inlineStr">
         <is>
-          <t>22/03/2024 14H-16H</t>
+          <t>21/03/2024 10H-12H</t>
         </is>
       </c>
       <c r="L4" s="0" t="inlineStr">
         <is>
-          <t>28/03/2024 10H-12H</t>
+          <t>28/03/2024 16H-18H</t>
         </is>
       </c>
       <c r="M4" s="0" t="inlineStr">
         <is>
-          <t>04/04/2024 10H-12H</t>
+          <t>04/04/2024 8H-10H</t>
         </is>
       </c>
       <c r="N4" s="0" t="inlineStr">
@@ -21577,22 +21589,22 @@
       </c>
       <c r="J5" s="0" t="inlineStr">
         <is>
-          <t>09/07/2024 10H-12H</t>
+          <t>09/07/2024 8H-10H</t>
         </is>
       </c>
       <c r="K5" s="0" t="inlineStr">
         <is>
-          <t>16/07/2024 8H-10H</t>
+          <t>16/07/2024 16H-18H</t>
         </is>
       </c>
       <c r="L5" s="0" t="inlineStr">
         <is>
-          <t>23/07/2024 14H-16H</t>
+          <t>23/07/2024 16H-18H</t>
         </is>
       </c>
       <c r="M5" s="0" t="inlineStr">
         <is>
-          <t>30/07/2024 14H-16H</t>
+          <t>30/07/2024 10H-12H</t>
         </is>
       </c>
       <c r="N5" s="0" t="inlineStr">
@@ -21661,12 +21673,12 @@
       </c>
       <c r="L6" s="0" t="inlineStr">
         <is>
-          <t>21/05/2024 16H-18H</t>
+          <t>21/05/2024 14H-16H</t>
         </is>
       </c>
       <c r="M6" s="0" t="inlineStr">
         <is>
-          <t>28/05/2024 8H-10H</t>
+          <t>28/05/2024 14H-16H</t>
         </is>
       </c>
       <c r="N6" s="0" t="inlineStr">
@@ -21750,7 +21762,7 @@
       </c>
       <c r="O7" s="0" t="inlineStr">
         <is>
-          <t>17/06/2024 16H-18H</t>
+          <t>17/06/2024 10H-12H</t>
         </is>
       </c>
       <c r="P7" s="0" t="inlineStr">
@@ -21848,22 +21860,22 @@
       <c r="D9" s="0" t="inlineStr"/>
       <c r="E9" s="0" t="inlineStr">
         <is>
-          <t>07/02/2024 16H-18H</t>
+          <t>05/02/2024 8H-10H</t>
         </is>
       </c>
       <c r="F9" s="0" t="inlineStr">
         <is>
-          <t>21/02/2024 8H-10H</t>
+          <t>21/02/2024 10H-12H</t>
         </is>
       </c>
       <c r="G9" s="0" t="inlineStr">
         <is>
-          <t>28/02/2024 8H-10H</t>
+          <t>28/02/2024 16H-18H</t>
         </is>
       </c>
       <c r="H9" s="0" t="inlineStr">
         <is>
-          <t>06/03/2024 14H-16H</t>
+          <t>06/03/2024 10H-12H</t>
         </is>
       </c>
       <c r="I9" s="0" t="inlineStr">
@@ -21873,37 +21885,37 @@
       </c>
       <c r="J9" s="0" t="inlineStr">
         <is>
-          <t>20/03/2024 10H-12H</t>
+          <t>20/03/2024 16H-18H</t>
         </is>
       </c>
       <c r="K9" s="0" t="inlineStr">
         <is>
-          <t>27/03/2024 14H-16H</t>
+          <t>27/03/2024 8H-10H</t>
         </is>
       </c>
       <c r="L9" s="0" t="inlineStr">
         <is>
-          <t>03/04/2024 16H-18H</t>
+          <t>03/04/2024 14H-16H</t>
         </is>
       </c>
       <c r="M9" s="0" t="inlineStr">
         <is>
-          <t>08/04/2024 8H-10H</t>
+          <t>08/04/2024 10H-12H</t>
         </is>
       </c>
       <c r="N9" s="0" t="inlineStr">
         <is>
-          <t>17/04/2024 10H-12H</t>
+          <t>15/04/2024 16H-18H</t>
         </is>
       </c>
       <c r="O9" s="0" t="inlineStr">
         <is>
-          <t>15/05/2024 16H-18H</t>
+          <t>08/05/2024 16H-18H</t>
         </is>
       </c>
       <c r="P9" s="0" t="inlineStr">
         <is>
-          <t>31/07/2024 14H-16H</t>
+          <t>31/07/2024 8H-10H</t>
         </is>
       </c>
     </row>
@@ -21967,7 +21979,7 @@
       </c>
       <c r="N10" s="0" t="inlineStr">
         <is>
-          <t>05/06/2024 10H-12H</t>
+          <t>05/06/2024 14H-16H</t>
         </is>
       </c>
       <c r="O10" s="0" t="inlineStr">
@@ -22001,12 +22013,12 @@
       </c>
       <c r="F11" s="0" t="inlineStr">
         <is>
-          <t>28/03/2024 14H-16H</t>
+          <t>28/03/2024 8H-10H</t>
         </is>
       </c>
       <c r="G11" s="0" t="inlineStr">
         <is>
-          <t>04/04/2024 8H-10H</t>
+          <t>04/04/2024 10H-12H</t>
         </is>
       </c>
       <c r="H11" s="0" t="inlineStr">
@@ -22016,32 +22028,32 @@
       </c>
       <c r="I11" s="0" t="inlineStr">
         <is>
-          <t>18/04/2024 8H-10H</t>
+          <t>18/04/2024 16H-18H</t>
         </is>
       </c>
       <c r="J11" s="0" t="inlineStr">
         <is>
-          <t>25/04/2024 14H-16H</t>
+          <t>25/04/2024 10H-12H</t>
         </is>
       </c>
       <c r="K11" s="0" t="inlineStr">
         <is>
-          <t>02/05/2024 10H-12H</t>
+          <t>02/05/2024 14H-16H</t>
         </is>
       </c>
       <c r="L11" s="0" t="inlineStr">
         <is>
-          <t>09/05/2024 14H-16H</t>
+          <t>09/05/2024 8H-10H</t>
         </is>
       </c>
       <c r="M11" s="0" t="inlineStr">
         <is>
-          <t>16/05/2024 14H-16H</t>
+          <t>16/05/2024 10H-12H</t>
         </is>
       </c>
       <c r="N11" s="0" t="inlineStr">
         <is>
-          <t>23/05/2024 16H-18H</t>
+          <t>23/05/2024 14H-16H</t>
         </is>
       </c>
       <c r="O11" s="0" t="inlineStr">
@@ -22312,7 +22324,7 @@
       </c>
       <c r="I15" s="0" t="inlineStr">
         <is>
-          <t>11/03/2024 8H-10H</t>
+          <t>11/03/2024 16H-18H</t>
         </is>
       </c>
       <c r="J15" s="0" t="inlineStr">
@@ -22322,17 +22334,17 @@
       </c>
       <c r="K15" s="0" t="inlineStr">
         <is>
-          <t>25/03/2024 14H-16H</t>
+          <t>25/03/2024 8H-10H</t>
         </is>
       </c>
       <c r="L15" s="0" t="inlineStr">
         <is>
-          <t>01/04/2024 10H-12H</t>
+          <t>01/04/2024 14H-16H</t>
         </is>
       </c>
       <c r="M15" s="0" t="inlineStr">
         <is>
-          <t>08/04/2024 10H-12H</t>
+          <t>08/04/2024 14H-16H</t>
         </is>
       </c>
       <c r="N15" s="0" t="inlineStr">
@@ -22450,7 +22462,7 @@
       </c>
       <c r="G17" s="0" t="inlineStr">
         <is>
-          <t>12/04/2024 14H-16H</t>
+          <t>12/04/2024 16H-18H</t>
         </is>
       </c>
       <c r="H17" s="0" t="inlineStr">
@@ -22470,7 +22482,7 @@
       </c>
       <c r="K17" s="0" t="inlineStr">
         <is>
-          <t>10/05/2024 10H-12H</t>
+          <t>10/05/2024 8H-10H</t>
         </is>
       </c>
       <c r="L17" s="0" t="inlineStr">
@@ -22603,32 +22615,32 @@
       </c>
       <c r="H19" s="0" t="inlineStr">
         <is>
-          <t>20/06/2024 16H-18H</t>
+          <t>20/06/2024 10H-12H</t>
         </is>
       </c>
       <c r="I19" s="0" t="inlineStr">
         <is>
-          <t>27/06/2024 8H-10H</t>
+          <t>27/06/2024 14H-16H</t>
         </is>
       </c>
       <c r="J19" s="0" t="inlineStr">
         <is>
-          <t>04/07/2024 16H-18H</t>
+          <t>04/07/2024 8H-10H</t>
         </is>
       </c>
       <c r="K19" s="0" t="inlineStr">
         <is>
-          <t>11/07/2024 10H-12H</t>
+          <t>11/07/2024 8H-10H</t>
         </is>
       </c>
       <c r="L19" s="0" t="inlineStr">
         <is>
-          <t>18/07/2024 16H-18H</t>
+          <t>18/07/2024 10H-12H</t>
         </is>
       </c>
       <c r="M19" s="0" t="inlineStr">
         <is>
-          <t>25/07/2024 14H-16H</t>
+          <t>25/07/2024 16H-18H</t>
         </is>
       </c>
       <c r="N19" s="0" t="inlineStr">
@@ -22677,7 +22689,7 @@
       </c>
       <c r="H20" s="0" t="inlineStr">
         <is>
-          <t>21/06/2024 16H-18H</t>
+          <t>21/06/2024 14H-16H</t>
         </is>
       </c>
       <c r="I20" s="0" t="inlineStr">
@@ -22697,7 +22709,7 @@
       </c>
       <c r="L20" s="0" t="inlineStr">
         <is>
-          <t>19/07/2024 8H-10H</t>
+          <t>19/07/2024 14H-16H</t>
         </is>
       </c>
       <c r="M20" s="0" t="inlineStr">
@@ -22707,7 +22719,7 @@
       </c>
       <c r="N20" s="0" t="inlineStr">
         <is>
-          <t>02/08/2024 10H-12H</t>
+          <t>02/08/2024 14H-16H</t>
         </is>
       </c>
       <c r="O20" s="0" t="inlineStr">
@@ -23067,17 +23079,17 @@
       </c>
       <c r="L25" s="0" t="inlineStr">
         <is>
-          <t>17/07/2024 14H-16H</t>
+          <t>17/07/2024 16H-18H</t>
         </is>
       </c>
       <c r="M25" s="0" t="inlineStr">
         <is>
-          <t>24/07/2024 8H-10H</t>
+          <t>24/07/2024 16H-18H</t>
         </is>
       </c>
       <c r="N25" s="0" t="inlineStr">
         <is>
-          <t>31/07/2024 10H-12H</t>
+          <t>31/07/2024 16H-18H</t>
         </is>
       </c>
       <c r="O25" s="0" t="inlineStr">
@@ -23373,7 +23385,7 @@
       </c>
       <c r="N29" s="0" t="inlineStr">
         <is>
-          <t>11/04/2024 8H-10H</t>
+          <t>11/04/2024 16H-18H</t>
         </is>
       </c>
       <c r="O29" s="0" t="inlineStr">
@@ -23560,17 +23572,17 @@
       </c>
       <c r="G32" s="0" t="inlineStr">
         <is>
-          <t>17/04/2024 8H-10H</t>
+          <t>17/04/2024 14H-16H</t>
         </is>
       </c>
       <c r="H32" s="0" t="inlineStr">
         <is>
-          <t>24/04/2024 8H-10H</t>
+          <t>24/04/2024 16H-18H</t>
         </is>
       </c>
       <c r="I32" s="0" t="inlineStr">
         <is>
-          <t>30/04/2024 10H-12H</t>
+          <t>30/04/2024 16H-18H</t>
         </is>
       </c>
       <c r="J32" s="0" t="inlineStr">
@@ -23580,22 +23592,22 @@
       </c>
       <c r="K32" s="0" t="inlineStr">
         <is>
-          <t>14/05/2024 10H-12H</t>
+          <t>14/05/2024 14H-16H</t>
         </is>
       </c>
       <c r="L32" s="0" t="inlineStr">
         <is>
-          <t>21/05/2024 10H-12H</t>
+          <t>21/05/2024 8H-10H</t>
         </is>
       </c>
       <c r="M32" s="0" t="inlineStr">
         <is>
-          <t>28/05/2024 14H-16H</t>
+          <t>28/05/2024 16H-18H</t>
         </is>
       </c>
       <c r="N32" s="0" t="inlineStr">
         <is>
-          <t>04/06/2024 14H-16H</t>
+          <t>04/06/2024 10H-12H</t>
         </is>
       </c>
       <c r="O32" s="0" t="inlineStr">
@@ -23659,7 +23671,7 @@
       </c>
       <c r="L33" s="0" t="inlineStr">
         <is>
-          <t>23/05/2024 10H-12H</t>
+          <t>23/05/2024 16H-18H</t>
         </is>
       </c>
       <c r="M33" s="0" t="inlineStr">
@@ -23723,27 +23735,27 @@
       </c>
       <c r="J34" s="0" t="inlineStr">
         <is>
-          <t>19/03/2024 8H-10H</t>
+          <t>19/03/2024 10H-12H</t>
         </is>
       </c>
       <c r="K34" s="0" t="inlineStr">
         <is>
-          <t>26/03/2024 16H-18H</t>
+          <t>26/03/2024 10H-12H</t>
         </is>
       </c>
       <c r="L34" s="0" t="inlineStr">
         <is>
-          <t>02/04/2024 10H-12H</t>
+          <t>02/04/2024 16H-18H</t>
         </is>
       </c>
       <c r="M34" s="0" t="inlineStr">
         <is>
-          <t>09/04/2024 14H-16H</t>
+          <t>09/04/2024 10H-12H</t>
         </is>
       </c>
       <c r="N34" s="0" t="inlineStr">
         <is>
-          <t>16/04/2024 10H-12H</t>
+          <t>16/04/2024 8H-10H</t>
         </is>
       </c>
       <c r="O34" s="0" t="inlineStr">
@@ -23925,42 +23937,42 @@
       </c>
       <c r="F37" s="0" t="inlineStr">
         <is>
-          <t>27/05/2024 8H-10H</t>
+          <t>27/05/2024 10H-12H</t>
         </is>
       </c>
       <c r="G37" s="0" t="inlineStr">
         <is>
-          <t>03/06/2024 16H-18H</t>
+          <t>03/06/2024 10H-12H</t>
         </is>
       </c>
       <c r="H37" s="0" t="inlineStr">
         <is>
-          <t>10/06/2024 14H-16H</t>
+          <t>10/06/2024 10H-12H</t>
         </is>
       </c>
       <c r="I37" s="0" t="inlineStr">
         <is>
-          <t>17/06/2024 14H-16H</t>
+          <t>17/06/2024 8H-10H</t>
         </is>
       </c>
       <c r="J37" s="0" t="inlineStr">
         <is>
-          <t>24/06/2024 10H-12H</t>
+          <t>24/06/2024 14H-16H</t>
         </is>
       </c>
       <c r="K37" s="0" t="inlineStr">
         <is>
-          <t>01/07/2024 8H-10H</t>
+          <t>01/07/2024 16H-18H</t>
         </is>
       </c>
       <c r="L37" s="0" t="inlineStr">
         <is>
-          <t>08/07/2024 10H-12H</t>
+          <t>08/07/2024 14H-16H</t>
         </is>
       </c>
       <c r="M37" s="0" t="inlineStr">
         <is>
-          <t>15/07/2024 8H-10H</t>
+          <t>15/07/2024 16H-18H</t>
         </is>
       </c>
       <c r="N37" s="0" t="inlineStr">
@@ -23970,7 +23982,7 @@
       </c>
       <c r="O37" s="0" t="inlineStr">
         <is>
-          <t>19/08/2024 14H-16H</t>
+          <t>19/08/2024 16H-18H</t>
         </is>
       </c>
       <c r="P37" s="0" t="inlineStr">
@@ -24152,12 +24164,12 @@
       </c>
       <c r="G40" s="0" t="inlineStr">
         <is>
-          <t>21/02/2024 14H-16H</t>
+          <t>21/02/2024 16H-18H</t>
         </is>
       </c>
       <c r="H40" s="0" t="inlineStr">
         <is>
-          <t>28/02/2024 16H-18H</t>
+          <t>28/02/2024 8H-10H</t>
         </is>
       </c>
       <c r="I40" s="0" t="inlineStr">
@@ -24167,12 +24179,12 @@
       </c>
       <c r="J40" s="0" t="inlineStr">
         <is>
-          <t>13/03/2024 10H-12H</t>
+          <t>13/03/2024 14H-16H</t>
         </is>
       </c>
       <c r="K40" s="0" t="inlineStr">
         <is>
-          <t>20/03/2024 16H-18H</t>
+          <t>20/03/2024 8H-10H</t>
         </is>
       </c>
       <c r="L40" s="0" t="inlineStr">
@@ -24182,12 +24194,12 @@
       </c>
       <c r="M40" s="0" t="inlineStr">
         <is>
-          <t>03/04/2024 8H-10H</t>
+          <t>03/04/2024 10H-12H</t>
         </is>
       </c>
       <c r="N40" s="0" t="inlineStr">
         <is>
-          <t>10/04/2024 16H-18H</t>
+          <t>10/04/2024 14H-16H</t>
         </is>
       </c>
       <c r="O40" s="0" t="inlineStr">
@@ -24221,37 +24233,37 @@
       </c>
       <c r="F41" s="0" t="inlineStr">
         <is>
-          <t>15/02/2024 8H-10H</t>
+          <t>16/02/2024 8H-10H</t>
         </is>
       </c>
       <c r="G41" s="0" t="inlineStr">
         <is>
-          <t>22/02/2024 10H-12H</t>
+          <t>23/02/2024 14H-16H</t>
         </is>
       </c>
       <c r="H41" s="0" t="inlineStr">
         <is>
-          <t>29/02/2024 8H-10H</t>
+          <t>01/03/2024 16H-18H</t>
         </is>
       </c>
       <c r="I41" s="0" t="inlineStr">
         <is>
-          <t>07/03/2024 10H-12H</t>
+          <t>08/03/2024 8H-10H</t>
         </is>
       </c>
       <c r="J41" s="0" t="inlineStr">
         <is>
-          <t>14/03/2024 14H-16H</t>
+          <t>15/03/2024 10H-12H</t>
         </is>
       </c>
       <c r="K41" s="0" t="inlineStr">
         <is>
-          <t>21/03/2024 16H-18H</t>
+          <t>22/03/2024 16H-18H</t>
         </is>
       </c>
       <c r="L41" s="0" t="inlineStr">
         <is>
-          <t>28/03/2024 8H-10H</t>
+          <t>28/03/2024 14H-16H</t>
         </is>
       </c>
       <c r="M41" s="0" t="inlineStr">
@@ -24586,12 +24598,12 @@
       <c r="D46" s="0" t="inlineStr"/>
       <c r="E46" s="0" t="inlineStr">
         <is>
-          <t>06/02/2024 10H-12H</t>
+          <t>06/02/2024 16H-18H</t>
         </is>
       </c>
       <c r="F46" s="0" t="inlineStr">
         <is>
-          <t>16/02/2024 8H-10H</t>
+          <t>16/02/2024 14H-16H</t>
         </is>
       </c>
       <c r="G46" s="0" t="inlineStr">
@@ -24616,32 +24628,32 @@
       </c>
       <c r="K46" s="0" t="inlineStr">
         <is>
-          <t>22/03/2024 10H-12H</t>
+          <t>22/03/2024 14H-16H</t>
         </is>
       </c>
       <c r="L46" s="0" t="inlineStr">
         <is>
-          <t>26/03/2024 10H-12H</t>
+          <t>26/03/2024 14H-16H</t>
         </is>
       </c>
       <c r="M46" s="0" t="inlineStr">
         <is>
-          <t>02/04/2024 8H-10H</t>
+          <t>02/04/2024 14H-16H</t>
         </is>
       </c>
       <c r="N46" s="0" t="inlineStr">
         <is>
-          <t>09/04/2024 16H-18H</t>
+          <t>09/04/2024 14H-16H</t>
         </is>
       </c>
       <c r="O46" s="0" t="inlineStr">
         <is>
-          <t>03/05/2024 14H-16H</t>
+          <t>03/05/2024 16H-18H</t>
         </is>
       </c>
       <c r="P46" s="0" t="inlineStr">
         <is>
-          <t>02/08/2024 14H-16H</t>
+          <t>06/08/2024 10H-12H</t>
         </is>
       </c>
     </row>
@@ -24956,7 +24968,7 @@
       <c r="D51" s="0" t="inlineStr"/>
       <c r="E51" s="0" t="inlineStr">
         <is>
-          <t>06/02/2024 10H-12H</t>
+          <t>06/02/2024 14H-16H</t>
         </is>
       </c>
       <c r="F51" s="0" t="inlineStr">
@@ -24966,22 +24978,22 @@
       </c>
       <c r="G51" s="0" t="inlineStr">
         <is>
-          <t>27/02/2024 8H-10H</t>
+          <t>27/02/2024 16H-18H</t>
         </is>
       </c>
       <c r="H51" s="0" t="inlineStr">
         <is>
-          <t>05/03/2024 14H-16H</t>
+          <t>05/03/2024 16H-18H</t>
         </is>
       </c>
       <c r="I51" s="0" t="inlineStr">
         <is>
-          <t>12/03/2024 8H-10H</t>
+          <t>12/03/2024 16H-18H</t>
         </is>
       </c>
       <c r="J51" s="0" t="inlineStr">
         <is>
-          <t>19/03/2024 16H-18H</t>
+          <t>19/03/2024 8H-10H</t>
         </is>
       </c>
       <c r="K51" s="0" t="inlineStr">
@@ -24991,17 +25003,17 @@
       </c>
       <c r="L51" s="0" t="inlineStr">
         <is>
-          <t>02/04/2024 14H-16H</t>
+          <t>02/04/2024 10H-12H</t>
         </is>
       </c>
       <c r="M51" s="0" t="inlineStr">
         <is>
-          <t>09/04/2024 10H-12H</t>
+          <t>09/04/2024 16H-18H</t>
         </is>
       </c>
       <c r="N51" s="0" t="inlineStr">
         <is>
-          <t>16/04/2024 14H-16H</t>
+          <t>17/04/2024 16H-18H</t>
         </is>
       </c>
       <c r="O51" s="0" t="inlineStr">
@@ -25011,7 +25023,7 @@
       </c>
       <c r="P51" s="0" t="inlineStr">
         <is>
-          <t>06/08/2024 10H-12H</t>
+          <t>31/07/2024 14H-16H</t>
         </is>
       </c>
     </row>
@@ -41406,12 +41418,16 @@
       </c>
       <c r="BW2" s="0" t="inlineStr">
         <is>
-          <t>K-2SO</t>
+          <t>Asajj Ventress</t>
         </is>
       </c>
       <c r="BX2" s="0" t="inlineStr"/>
       <c r="BY2" s="0" t="inlineStr"/>
-      <c r="BZ2" s="0" t="inlineStr"/>
+      <c r="BZ2" s="0" t="inlineStr">
+        <is>
+          <t>Obi-Wan Kenobi</t>
+        </is>
+      </c>
       <c r="CA2" s="0" t="inlineStr"/>
       <c r="CB2" s="0" t="inlineStr"/>
       <c r="CC2" s="0" t="inlineStr"/>
@@ -41535,7 +41551,11 @@
       <c r="EU2" s="0" t="inlineStr"/>
       <c r="EV2" s="0" t="inlineStr"/>
       <c r="EW2" s="0" t="inlineStr"/>
-      <c r="EX2" s="0" t="inlineStr"/>
+      <c r="EX2" s="0" t="inlineStr">
+        <is>
+          <t>Anakin Skywalker</t>
+        </is>
+      </c>
       <c r="EY2" s="0" t="inlineStr"/>
       <c r="EZ2" s="0" t="inlineStr">
         <is>
@@ -41728,7 +41748,7 @@
       </c>
       <c r="AB3" s="0" t="inlineStr">
         <is>
-          <t>Rancor</t>
+          <t>Obi-Wan Kenobi</t>
         </is>
       </c>
       <c r="AC3" s="0" t="inlineStr">
@@ -41809,18 +41829,10 @@
           <t>Dagobah Snake</t>
         </is>
       </c>
-      <c r="BW3" s="0" t="inlineStr">
-        <is>
-          <t>Asajj Ventress</t>
-        </is>
-      </c>
+      <c r="BW3" s="0" t="inlineStr"/>
       <c r="BX3" s="0" t="inlineStr"/>
       <c r="BY3" s="0" t="inlineStr"/>
-      <c r="BZ3" s="0" t="inlineStr">
-        <is>
-          <t>Obi-Wan Kenobi</t>
-        </is>
-      </c>
+      <c r="BZ3" s="0" t="inlineStr"/>
       <c r="CA3" s="0" t="inlineStr"/>
       <c r="CB3" s="0" t="inlineStr"/>
       <c r="CC3" s="0" t="inlineStr"/>
@@ -41883,12 +41895,12 @@
         </is>
       </c>
       <c r="DH3" s="0" t="inlineStr"/>
-      <c r="DI3" s="0" t="inlineStr"/>
-      <c r="DJ3" s="0" t="inlineStr">
-        <is>
-          <t>Darth Revan</t>
-        </is>
-      </c>
+      <c r="DI3" s="0" t="inlineStr">
+        <is>
+          <t>Bossk</t>
+        </is>
+      </c>
+      <c r="DJ3" s="0" t="inlineStr"/>
       <c r="DK3" s="0" t="inlineStr"/>
       <c r="DL3" s="0" t="inlineStr"/>
       <c r="DM3" s="0" t="inlineStr"/>
@@ -41900,7 +41912,11 @@
       </c>
       <c r="DP3" s="0" t="inlineStr"/>
       <c r="DQ3" s="0" t="inlineStr"/>
-      <c r="DR3" s="0" t="inlineStr"/>
+      <c r="DR3" s="0" t="inlineStr">
+        <is>
+          <t>C-3PO</t>
+        </is>
+      </c>
       <c r="DS3" s="0" t="inlineStr"/>
       <c r="DT3" s="0" t="inlineStr">
         <is>
@@ -41944,11 +41960,7 @@
       <c r="EU3" s="0" t="inlineStr"/>
       <c r="EV3" s="0" t="inlineStr"/>
       <c r="EW3" s="0" t="inlineStr"/>
-      <c r="EX3" s="0" t="inlineStr">
-        <is>
-          <t>Reek</t>
-        </is>
-      </c>
+      <c r="EX3" s="0" t="inlineStr"/>
       <c r="EY3" s="0" t="inlineStr"/>
       <c r="EZ3" s="0" t="inlineStr">
         <is>
@@ -41962,7 +41974,7 @@
       </c>
       <c r="FB3" s="0" t="inlineStr">
         <is>
-          <t>Rancor</t>
+          <t>Clone Trooper</t>
         </is>
       </c>
       <c r="FC3" s="0" t="inlineStr"/>
@@ -42208,7 +42220,11 @@
       <c r="BR4" s="0" t="inlineStr"/>
       <c r="BS4" s="0" t="inlineStr"/>
       <c r="BT4" s="0" t="inlineStr"/>
-      <c r="BU4" s="0" t="inlineStr"/>
+      <c r="BU4" s="0" t="inlineStr">
+        <is>
+          <t>Clone Trooper</t>
+        </is>
+      </c>
       <c r="BV4" s="0" t="inlineStr"/>
       <c r="BW4" s="0" t="inlineStr">
         <is>
@@ -42217,11 +42233,7 @@
       </c>
       <c r="BX4" s="0" t="inlineStr"/>
       <c r="BY4" s="0" t="inlineStr"/>
-      <c r="BZ4" s="0" t="inlineStr">
-        <is>
-          <t>Rancor</t>
-        </is>
-      </c>
+      <c r="BZ4" s="0" t="inlineStr"/>
       <c r="CA4" s="0" t="inlineStr"/>
       <c r="CB4" s="0" t="inlineStr"/>
       <c r="CC4" s="0" t="inlineStr"/>
@@ -42235,11 +42247,7 @@
       <c r="CG4" s="0" t="inlineStr"/>
       <c r="CH4" s="0" t="inlineStr"/>
       <c r="CI4" s="0" t="inlineStr"/>
-      <c r="CJ4" s="0" t="inlineStr">
-        <is>
-          <t>Rancor</t>
-        </is>
-      </c>
+      <c r="CJ4" s="0" t="inlineStr"/>
       <c r="CK4" s="0" t="inlineStr">
         <is>
           <t>OFF</t>
@@ -42276,7 +42284,11 @@
         </is>
       </c>
       <c r="CZ4" s="0" t="inlineStr"/>
-      <c r="DA4" s="0" t="inlineStr"/>
+      <c r="DA4" s="0" t="inlineStr">
+        <is>
+          <t>Battle Droid</t>
+        </is>
+      </c>
       <c r="DB4" s="0" t="inlineStr"/>
       <c r="DC4" s="0" t="inlineStr"/>
       <c r="DD4" s="0" t="inlineStr"/>
@@ -42292,11 +42304,7 @@
         </is>
       </c>
       <c r="DH4" s="0" t="inlineStr"/>
-      <c r="DI4" s="0" t="inlineStr">
-        <is>
-          <t>Bossk</t>
-        </is>
-      </c>
+      <c r="DI4" s="0" t="inlineStr"/>
       <c r="DJ4" s="0" t="inlineStr">
         <is>
           <t>Zaalbar</t>
@@ -42394,11 +42402,7 @@
           <t>Reek</t>
         </is>
       </c>
-      <c r="FK4" s="0" t="inlineStr">
-        <is>
-          <t>Darth Maul</t>
-        </is>
-      </c>
+      <c r="FK4" s="0" t="inlineStr"/>
       <c r="FL4" s="0" t="inlineStr"/>
       <c r="FM4" s="0" t="inlineStr">
         <is>
@@ -42578,7 +42582,7 @@
       </c>
       <c r="AB5" s="0" t="inlineStr">
         <is>
-          <t>Baze Malbus</t>
+          <t>Clone Trooper</t>
         </is>
       </c>
       <c r="AC5" s="0" t="inlineStr"/>
@@ -42651,9 +42655,17 @@
           <t>Nien Nunb</t>
         </is>
       </c>
-      <c r="BW5" s="0" t="inlineStr"/>
+      <c r="BW5" s="0" t="inlineStr">
+        <is>
+          <t>K-2SO</t>
+        </is>
+      </c>
       <c r="BX5" s="0" t="inlineStr"/>
-      <c r="BY5" s="0" t="inlineStr"/>
+      <c r="BY5" s="0" t="inlineStr">
+        <is>
+          <t>Anakin Skywalker</t>
+        </is>
+      </c>
       <c r="BZ5" s="0" t="inlineStr">
         <is>
           <t>Palpatine</t>
@@ -42675,7 +42687,11 @@
         </is>
       </c>
       <c r="CL5" s="0" t="inlineStr"/>
-      <c r="CM5" s="0" t="inlineStr"/>
+      <c r="CM5" s="0" t="inlineStr">
+        <is>
+          <t>Clone Trooper</t>
+        </is>
+      </c>
       <c r="CN5" s="0" t="inlineStr">
         <is>
           <t>Bossk</t>
@@ -42686,7 +42702,11 @@
           <t>Palpatine</t>
         </is>
       </c>
-      <c r="CP5" s="0" t="inlineStr"/>
+      <c r="CP5" s="0" t="inlineStr">
+        <is>
+          <t>Anakin Skywalker</t>
+        </is>
+      </c>
       <c r="CQ5" s="0" t="inlineStr"/>
       <c r="CR5" s="0" t="inlineStr"/>
       <c r="CS5" s="0" t="inlineStr"/>
@@ -42701,11 +42721,7 @@
       </c>
       <c r="CY5" s="0" t="inlineStr"/>
       <c r="CZ5" s="0" t="inlineStr"/>
-      <c r="DA5" s="0" t="inlineStr">
-        <is>
-          <t>Battle Droid</t>
-        </is>
-      </c>
+      <c r="DA5" s="0" t="inlineStr"/>
       <c r="DB5" s="0" t="inlineStr"/>
       <c r="DC5" s="0" t="inlineStr"/>
       <c r="DD5" s="0" t="inlineStr"/>
@@ -42730,11 +42746,7 @@
       <c r="DO5" s="0" t="inlineStr"/>
       <c r="DP5" s="0" t="inlineStr"/>
       <c r="DQ5" s="0" t="inlineStr"/>
-      <c r="DR5" s="0" t="inlineStr">
-        <is>
-          <t>C-3PO</t>
-        </is>
-      </c>
+      <c r="DR5" s="0" t="inlineStr"/>
       <c r="DS5" s="0" t="inlineStr"/>
       <c r="DT5" s="0" t="inlineStr">
         <is>
@@ -42782,7 +42794,11 @@
       <c r="EU5" s="0" t="inlineStr"/>
       <c r="EV5" s="0" t="inlineStr"/>
       <c r="EW5" s="0" t="inlineStr"/>
-      <c r="EX5" s="0" t="inlineStr"/>
+      <c r="EX5" s="0" t="inlineStr">
+        <is>
+          <t>Reek</t>
+        </is>
+      </c>
       <c r="EY5" s="0" t="inlineStr"/>
       <c r="EZ5" s="0" t="inlineStr">
         <is>
@@ -42807,7 +42823,11 @@
       <c r="FH5" s="0" t="inlineStr"/>
       <c r="FI5" s="0" t="inlineStr"/>
       <c r="FJ5" s="0" t="inlineStr"/>
-      <c r="FK5" s="0" t="inlineStr"/>
+      <c r="FK5" s="0" t="inlineStr">
+        <is>
+          <t>Darth Maul</t>
+        </is>
+      </c>
       <c r="FL5" s="0" t="inlineStr">
         <is>
           <t>Sy Snootles</t>
